--- a/14.0 FORMATO N°07 INVIERTE PE/F 7C IE Curpahuasi.xlsx
+++ b/14.0 FORMATO N°07 INVIERTE PE/F 7C IE Curpahuasi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI\Desktop\IOARR CURPAHUASI\FORMATO N°07 INVIERTE PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0004-CURPAHUASI\14.0 FORMATO N°07 INVIERTE PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF996956-8EDD-412F-9655-98AA2E4F6DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 02 OARR" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 02 OARR'!$A$2:$K$541</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1080,9 +1079,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1951,24 +1950,318 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,15 +2271,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1994,15 +2278,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2010,288 +2285,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2569,14 +2568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:O544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A475" zoomScale="99" zoomScaleNormal="51" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A74" zoomScale="99" zoomScaleNormal="51" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="H478" sqref="H478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2598,49 +2597,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="207" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="210"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="211" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
-      <c r="K4" s="183"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="214"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="189" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="215"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="215"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2672,17 +2671,17 @@
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="227"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2866,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="242" t="s">
+      <c r="D21" s="149" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="242"/>
+      <c r="E21" s="149"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2896,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="242"/>
+      <c r="E23" s="149"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2957,13 +2956,13 @@
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
-      <c r="F27" s="243" t="s">
+      <c r="F27" s="153" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="243"/>
-      <c r="H27" s="243"/>
-      <c r="I27" s="243"/>
-      <c r="J27" s="243"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
       <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2980,21 +2979,21 @@
     </row>
     <row r="29" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88"/>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
       <c r="F29" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="244" t="s">
+      <c r="G29" s="154" t="s">
         <v>337</v>
       </c>
-      <c r="H29" s="245"/>
-      <c r="I29" s="245"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="88"/>
@@ -3012,11 +3011,11 @@
     </row>
     <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="88"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="241"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
       <c r="E31" s="136" t="s">
         <v>16</v>
       </c>
@@ -3166,12 +3165,12 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="215" t="s">
+      <c r="G40" s="180" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="216"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="217"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="181"/>
+      <c r="J40" s="182"/>
       <c r="K40" s="78"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3183,12 +3182,12 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="215" t="s">
+      <c r="G41" s="180" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="217"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
       <c r="K41" s="78"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3200,12 +3199,12 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="215" t="s">
+      <c r="G42" s="180" t="s">
         <v>312</v>
       </c>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
       <c r="K42" s="78"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3217,12 +3216,12 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="215" t="s">
+      <c r="G43" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:12" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3263,12 +3262,12 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="215" t="s">
+      <c r="G46" s="180" t="s">
         <v>310</v>
       </c>
-      <c r="H46" s="216"/>
-      <c r="I46" s="216"/>
-      <c r="J46" s="217"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="182"/>
       <c r="K46" s="78"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3280,12 +3279,12 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="215" t="s">
+      <c r="G47" s="180" t="s">
         <v>329</v>
       </c>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="217"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="182"/>
       <c r="K47" s="78"/>
     </row>
     <row r="48" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3297,12 +3296,12 @@
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="212" t="s">
+      <c r="G48" s="245" t="s">
         <v>325</v>
       </c>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="214"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="246"/>
+      <c r="J48" s="247"/>
       <c r="K48" s="78"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3365,12 +3364,12 @@
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="215" t="s">
+      <c r="G52" s="180" t="s">
         <v>310</v>
       </c>
-      <c r="H52" s="216"/>
-      <c r="I52" s="216"/>
-      <c r="J52" s="217"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="182"/>
       <c r="K52" s="78"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -3382,12 +3381,12 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="215" t="s">
+      <c r="G53" s="180" t="s">
         <v>329</v>
       </c>
-      <c r="H53" s="216"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="217"/>
+      <c r="H53" s="181"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="182"/>
       <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3619,14 +3618,14 @@
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="229" t="s">
+      <c r="E68" s="147" t="s">
         <v>339</v>
       </c>
-      <c r="F68" s="230"/>
-      <c r="G68" s="230"/>
-      <c r="H68" s="230"/>
-      <c r="I68" s="230"/>
-      <c r="J68" s="231"/>
+      <c r="F68" s="179"/>
+      <c r="G68" s="179"/>
+      <c r="H68" s="179"/>
+      <c r="I68" s="179"/>
+      <c r="J68" s="148"/>
       <c r="K68" s="138"/>
     </row>
     <row r="69" spans="1:11" s="96" customFormat="1" x14ac:dyDescent="0.3">
@@ -3687,11 +3686,11 @@
       <c r="E72" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F72" s="147" t="s">
+      <c r="F72" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="G72" s="147"/>
-      <c r="H72" s="147"/>
+      <c r="G72" s="199"/>
+      <c r="H72" s="199"/>
       <c r="I72" s="89"/>
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
@@ -3708,11 +3707,11 @@
         <v>334</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="148" t="s">
+      <c r="F73" s="248" t="s">
         <v>340</v>
       </c>
-      <c r="G73" s="148"/>
-      <c r="H73" s="148"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="248"/>
       <c r="I73" s="89"/>
       <c r="J73" s="89"/>
       <c r="K73" s="89"/>
@@ -3835,10 +3834,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
-      <c r="D82" s="219" t="s">
+      <c r="D82" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="219"/>
+      <c r="E82" s="187"/>
       <c r="H82" s="79"/>
       <c r="I82" s="79"/>
       <c r="J82" s="79"/>
@@ -3919,17 +3918,17 @@
     </row>
     <row r="87" spans="1:11" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="57"/>
-      <c r="B87" s="152" t="s">
+      <c r="B87" s="250" t="s">
         <v>268</v>
       </c>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="152"/>
-      <c r="G87" s="152"/>
-      <c r="H87" s="152"/>
-      <c r="I87" s="152"/>
-      <c r="J87" s="152"/>
+      <c r="C87" s="250"/>
+      <c r="D87" s="250"/>
+      <c r="E87" s="250"/>
+      <c r="F87" s="250"/>
+      <c r="G87" s="250"/>
+      <c r="H87" s="250"/>
+      <c r="I87" s="250"/>
+      <c r="J87" s="250"/>
       <c r="K87" s="79"/>
     </row>
     <row r="88" spans="1:11" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4085,10 +4084,10 @@
       </c>
       <c r="C98" s="102"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="157" t="s">
+      <c r="E98" s="252" t="s">
         <v>280</v>
       </c>
-      <c r="F98" s="158"/>
+      <c r="F98" s="253"/>
       <c r="G98" s="106"/>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
@@ -4256,13 +4255,13 @@
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="57"/>
-      <c r="B110" s="203" t="s">
+      <c r="B110" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="C110" s="203"/>
-      <c r="D110" s="203"/>
-      <c r="E110" s="203"/>
-      <c r="F110" s="204"/>
+      <c r="C110" s="233"/>
+      <c r="D110" s="233"/>
+      <c r="E110" s="233"/>
+      <c r="F110" s="234"/>
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="79"/>
@@ -4276,21 +4275,21 @@
       <c r="D111" s="78"/>
       <c r="E111" s="78"/>
       <c r="F111" s="78"/>
-      <c r="G111" s="205"/>
-      <c r="H111" s="205"/>
+      <c r="G111" s="235"/>
+      <c r="H111" s="235"/>
       <c r="I111" s="79"/>
       <c r="J111" s="79"/>
       <c r="K111" s="79"/>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="57"/>
-      <c r="B112" s="203" t="s">
+      <c r="B112" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="C112" s="203"/>
-      <c r="D112" s="203"/>
-      <c r="E112" s="203"/>
-      <c r="F112" s="204"/>
+      <c r="C112" s="233"/>
+      <c r="D112" s="233"/>
+      <c r="E112" s="233"/>
+      <c r="F112" s="234"/>
       <c r="G112" s="25"/>
       <c r="H112" s="26"/>
       <c r="I112" s="79"/>
@@ -4413,44 +4412,44 @@
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="57"/>
-      <c r="B121" s="206" t="s">
+      <c r="B121" s="236" t="s">
         <v>281</v>
       </c>
-      <c r="C121" s="207"/>
-      <c r="D121" s="207"/>
-      <c r="E121" s="207"/>
-      <c r="F121" s="207"/>
-      <c r="G121" s="207"/>
-      <c r="H121" s="207"/>
-      <c r="I121" s="207"/>
-      <c r="J121" s="207"/>
-      <c r="K121" s="208"/>
+      <c r="C121" s="237"/>
+      <c r="D121" s="237"/>
+      <c r="E121" s="237"/>
+      <c r="F121" s="237"/>
+      <c r="G121" s="237"/>
+      <c r="H121" s="237"/>
+      <c r="I121" s="237"/>
+      <c r="J121" s="237"/>
+      <c r="K121" s="238"/>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="57"/>
-      <c r="B122" s="159"/>
-      <c r="C122" s="160"/>
-      <c r="D122" s="160"/>
-      <c r="E122" s="160"/>
-      <c r="F122" s="160"/>
-      <c r="G122" s="160"/>
-      <c r="H122" s="160"/>
-      <c r="I122" s="160"/>
-      <c r="J122" s="160"/>
-      <c r="K122" s="161"/>
+      <c r="B122" s="239"/>
+      <c r="C122" s="240"/>
+      <c r="D122" s="240"/>
+      <c r="E122" s="240"/>
+      <c r="F122" s="240"/>
+      <c r="G122" s="240"/>
+      <c r="H122" s="240"/>
+      <c r="I122" s="240"/>
+      <c r="J122" s="240"/>
+      <c r="K122" s="241"/>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="57"/>
-      <c r="B123" s="209"/>
-      <c r="C123" s="210"/>
-      <c r="D123" s="210"/>
-      <c r="E123" s="210"/>
-      <c r="F123" s="210"/>
-      <c r="G123" s="210"/>
-      <c r="H123" s="210"/>
-      <c r="I123" s="210"/>
-      <c r="J123" s="210"/>
-      <c r="K123" s="211"/>
+      <c r="B123" s="242"/>
+      <c r="C123" s="243"/>
+      <c r="D123" s="243"/>
+      <c r="E123" s="243"/>
+      <c r="F123" s="243"/>
+      <c r="G123" s="243"/>
+      <c r="H123" s="243"/>
+      <c r="I123" s="243"/>
+      <c r="J123" s="243"/>
+      <c r="K123" s="244"/>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="57"/>
@@ -4482,18 +4481,18 @@
     </row>
     <row r="126" spans="1:11" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="196" t="s">
+      <c r="B126" s="226" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="197"/>
-      <c r="D126" s="197"/>
-      <c r="E126" s="197"/>
-      <c r="F126" s="197"/>
-      <c r="G126" s="197"/>
-      <c r="H126" s="197"/>
-      <c r="I126" s="197"/>
-      <c r="J126" s="197"/>
-      <c r="K126" s="198"/>
+      <c r="C126" s="227"/>
+      <c r="D126" s="227"/>
+      <c r="E126" s="227"/>
+      <c r="F126" s="227"/>
+      <c r="G126" s="227"/>
+      <c r="H126" s="227"/>
+      <c r="I126" s="227"/>
+      <c r="J126" s="227"/>
+      <c r="K126" s="228"/>
     </row>
     <row r="127" spans="1:11" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="57"/>
@@ -4525,18 +4524,18 @@
     </row>
     <row r="129" spans="1:11" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="57"/>
-      <c r="B129" s="199" t="s">
+      <c r="B129" s="229" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="200"/>
-      <c r="D129" s="200"/>
-      <c r="E129" s="200"/>
-      <c r="F129" s="200"/>
-      <c r="G129" s="200"/>
-      <c r="H129" s="200"/>
-      <c r="I129" s="200"/>
-      <c r="J129" s="200"/>
-      <c r="K129" s="201"/>
+      <c r="C129" s="230"/>
+      <c r="D129" s="230"/>
+      <c r="E129" s="230"/>
+      <c r="F129" s="230"/>
+      <c r="G129" s="230"/>
+      <c r="H129" s="230"/>
+      <c r="I129" s="230"/>
+      <c r="J129" s="230"/>
+      <c r="K129" s="231"/>
     </row>
     <row r="130" spans="1:11" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="57"/>
@@ -4722,18 +4721,18 @@
     </row>
     <row r="143" spans="1:11" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="57"/>
-      <c r="B143" s="202" t="s">
+      <c r="B143" s="232" t="s">
         <v>284</v>
       </c>
-      <c r="C143" s="202"/>
-      <c r="D143" s="202"/>
-      <c r="E143" s="202"/>
-      <c r="F143" s="202"/>
-      <c r="G143" s="202"/>
-      <c r="H143" s="202"/>
-      <c r="I143" s="202"/>
-      <c r="J143" s="202"/>
-      <c r="K143" s="202"/>
+      <c r="C143" s="232"/>
+      <c r="D143" s="232"/>
+      <c r="E143" s="232"/>
+      <c r="F143" s="232"/>
+      <c r="G143" s="232"/>
+      <c r="H143" s="232"/>
+      <c r="I143" s="232"/>
+      <c r="J143" s="232"/>
+      <c r="K143" s="232"/>
     </row>
     <row r="144" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="57"/>
@@ -4750,11 +4749,11 @@
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
-      <c r="B145" s="149" t="s">
+      <c r="B145" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="149"/>
-      <c r="D145" s="149"/>
+      <c r="C145" s="158"/>
+      <c r="D145" s="158"/>
       <c r="G145" s="105"/>
       <c r="H145" s="17" t="s">
         <v>92</v>
@@ -4776,11 +4775,11 @@
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
-      <c r="B147" s="149" t="s">
+      <c r="B147" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="C147" s="149"/>
-      <c r="D147" s="149"/>
+      <c r="C147" s="158"/>
+      <c r="D147" s="158"/>
       <c r="G147" s="105"/>
       <c r="H147" s="17" t="s">
         <v>94</v>
@@ -4802,11 +4801,11 @@
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
-      <c r="B149" s="149" t="s">
+      <c r="B149" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="C149" s="149"/>
-      <c r="D149" s="149"/>
+      <c r="C149" s="158"/>
+      <c r="D149" s="158"/>
       <c r="G149" s="105"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -4826,12 +4825,12 @@
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
-      <c r="B151" s="149" t="s">
+      <c r="B151" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="C151" s="149"/>
-      <c r="D151" s="149"/>
-      <c r="E151" s="149"/>
+      <c r="C151" s="158"/>
+      <c r="D151" s="158"/>
+      <c r="E151" s="158"/>
       <c r="G151" s="105"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -4852,13 +4851,13 @@
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
-      <c r="B153" s="149" t="s">
+      <c r="B153" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="C153" s="149"/>
-      <c r="D153" s="149"/>
-      <c r="E153" s="149"/>
-      <c r="F153" s="150"/>
+      <c r="C153" s="158"/>
+      <c r="D153" s="158"/>
+      <c r="E153" s="158"/>
+      <c r="F153" s="159"/>
       <c r="G153" s="105"/>
       <c r="H153" s="24"/>
     </row>
@@ -4978,18 +4977,18 @@
     </row>
     <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
-      <c r="B162" s="162" t="s">
+      <c r="B162" s="254" t="s">
         <v>285</v>
       </c>
-      <c r="C162" s="163"/>
-      <c r="D162" s="163"/>
-      <c r="E162" s="163"/>
-      <c r="F162" s="163"/>
-      <c r="G162" s="163"/>
-      <c r="H162" s="163"/>
-      <c r="I162" s="163"/>
-      <c r="J162" s="163"/>
-      <c r="K162" s="164"/>
+      <c r="C162" s="255"/>
+      <c r="D162" s="255"/>
+      <c r="E162" s="255"/>
+      <c r="F162" s="255"/>
+      <c r="G162" s="255"/>
+      <c r="H162" s="255"/>
+      <c r="I162" s="255"/>
+      <c r="J162" s="255"/>
+      <c r="K162" s="256"/>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -5191,12 +5190,12 @@
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
-      <c r="B179" s="149" t="s">
+      <c r="B179" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="149"/>
-      <c r="D179" s="149"/>
-      <c r="E179" s="149"/>
+      <c r="C179" s="158"/>
+      <c r="D179" s="158"/>
+      <c r="E179" s="158"/>
       <c r="F179" s="78"/>
       <c r="G179" s="102"/>
       <c r="H179" s="17" t="s">
@@ -5221,13 +5220,13 @@
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="24"/>
-      <c r="B181" s="149" t="s">
+      <c r="B181" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C181" s="149"/>
-      <c r="D181" s="149"/>
-      <c r="E181" s="149"/>
-      <c r="F181" s="150"/>
+      <c r="C181" s="158"/>
+      <c r="D181" s="158"/>
+      <c r="E181" s="158"/>
+      <c r="F181" s="159"/>
       <c r="G181" s="102"/>
       <c r="H181" s="24"/>
       <c r="I181" s="24"/>
@@ -5277,13 +5276,13 @@
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="24"/>
-      <c r="B185" s="149" t="s">
+      <c r="B185" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="149"/>
-      <c r="D185" s="149"/>
-      <c r="E185" s="149"/>
-      <c r="F185" s="150"/>
+      <c r="C185" s="158"/>
+      <c r="D185" s="158"/>
+      <c r="E185" s="158"/>
+      <c r="F185" s="159"/>
       <c r="G185" s="102"/>
       <c r="H185" s="24"/>
       <c r="I185" s="24"/>
@@ -5388,74 +5387,74 @@
     </row>
     <row r="193" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
-      <c r="B193" s="165" t="s">
+      <c r="B193" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="C193" s="166"/>
-      <c r="D193" s="166"/>
-      <c r="E193" s="166"/>
-      <c r="F193" s="166"/>
-      <c r="G193" s="166"/>
-      <c r="H193" s="166"/>
-      <c r="I193" s="166"/>
-      <c r="J193" s="166"/>
-      <c r="K193" s="167"/>
+      <c r="C193" s="162"/>
+      <c r="D193" s="162"/>
+      <c r="E193" s="162"/>
+      <c r="F193" s="162"/>
+      <c r="G193" s="162"/>
+      <c r="H193" s="162"/>
+      <c r="I193" s="162"/>
+      <c r="J193" s="162"/>
+      <c r="K193" s="163"/>
       <c r="L193" s="20"/>
     </row>
     <row r="194" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
-      <c r="B194" s="168"/>
-      <c r="C194" s="169"/>
-      <c r="D194" s="169"/>
-      <c r="E194" s="169"/>
-      <c r="F194" s="169"/>
-      <c r="G194" s="169"/>
-      <c r="H194" s="169"/>
-      <c r="I194" s="169"/>
-      <c r="J194" s="169"/>
-      <c r="K194" s="170"/>
+      <c r="B194" s="164"/>
+      <c r="C194" s="165"/>
+      <c r="D194" s="165"/>
+      <c r="E194" s="165"/>
+      <c r="F194" s="165"/>
+      <c r="G194" s="165"/>
+      <c r="H194" s="165"/>
+      <c r="I194" s="165"/>
+      <c r="J194" s="165"/>
+      <c r="K194" s="166"/>
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
-      <c r="B195" s="168"/>
-      <c r="C195" s="169"/>
-      <c r="D195" s="169"/>
-      <c r="E195" s="169"/>
-      <c r="F195" s="169"/>
-      <c r="G195" s="169"/>
-      <c r="H195" s="169"/>
-      <c r="I195" s="169"/>
-      <c r="J195" s="169"/>
-      <c r="K195" s="170"/>
+      <c r="B195" s="164"/>
+      <c r="C195" s="165"/>
+      <c r="D195" s="165"/>
+      <c r="E195" s="165"/>
+      <c r="F195" s="165"/>
+      <c r="G195" s="165"/>
+      <c r="H195" s="165"/>
+      <c r="I195" s="165"/>
+      <c r="J195" s="165"/>
+      <c r="K195" s="166"/>
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
-      <c r="B196" s="168"/>
-      <c r="C196" s="169"/>
-      <c r="D196" s="169"/>
-      <c r="E196" s="169"/>
-      <c r="F196" s="169"/>
-      <c r="G196" s="169"/>
-      <c r="H196" s="169"/>
-      <c r="I196" s="169"/>
-      <c r="J196" s="169"/>
-      <c r="K196" s="170"/>
+      <c r="B196" s="164"/>
+      <c r="C196" s="165"/>
+      <c r="D196" s="165"/>
+      <c r="E196" s="165"/>
+      <c r="F196" s="165"/>
+      <c r="G196" s="165"/>
+      <c r="H196" s="165"/>
+      <c r="I196" s="165"/>
+      <c r="J196" s="165"/>
+      <c r="K196" s="166"/>
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
-      <c r="B197" s="171"/>
-      <c r="C197" s="172"/>
-      <c r="D197" s="172"/>
-      <c r="E197" s="172"/>
-      <c r="F197" s="172"/>
-      <c r="G197" s="172"/>
-      <c r="H197" s="172"/>
-      <c r="I197" s="172"/>
-      <c r="J197" s="172"/>
-      <c r="K197" s="173"/>
+      <c r="B197" s="167"/>
+      <c r="C197" s="168"/>
+      <c r="D197" s="168"/>
+      <c r="E197" s="168"/>
+      <c r="F197" s="168"/>
+      <c r="G197" s="168"/>
+      <c r="H197" s="168"/>
+      <c r="I197" s="168"/>
+      <c r="J197" s="168"/>
+      <c r="K197" s="169"/>
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5490,74 +5489,74 @@
     </row>
     <row r="200" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
-      <c r="B200" s="165" t="s">
+      <c r="B200" s="161" t="s">
         <v>287</v>
       </c>
-      <c r="C200" s="166"/>
-      <c r="D200" s="166"/>
-      <c r="E200" s="166"/>
-      <c r="F200" s="166"/>
-      <c r="G200" s="166"/>
-      <c r="H200" s="166"/>
-      <c r="I200" s="166"/>
-      <c r="J200" s="166"/>
-      <c r="K200" s="167"/>
+      <c r="C200" s="162"/>
+      <c r="D200" s="162"/>
+      <c r="E200" s="162"/>
+      <c r="F200" s="162"/>
+      <c r="G200" s="162"/>
+      <c r="H200" s="162"/>
+      <c r="I200" s="162"/>
+      <c r="J200" s="162"/>
+      <c r="K200" s="163"/>
       <c r="L200" s="33"/>
     </row>
     <row r="201" spans="1:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
-      <c r="B201" s="168"/>
-      <c r="C201" s="169"/>
-      <c r="D201" s="169"/>
-      <c r="E201" s="169"/>
-      <c r="F201" s="169"/>
-      <c r="G201" s="169"/>
-      <c r="H201" s="169"/>
-      <c r="I201" s="169"/>
-      <c r="J201" s="169"/>
-      <c r="K201" s="170"/>
+      <c r="B201" s="164"/>
+      <c r="C201" s="165"/>
+      <c r="D201" s="165"/>
+      <c r="E201" s="165"/>
+      <c r="F201" s="165"/>
+      <c r="G201" s="165"/>
+      <c r="H201" s="165"/>
+      <c r="I201" s="165"/>
+      <c r="J201" s="165"/>
+      <c r="K201" s="166"/>
       <c r="L201" s="2"/>
     </row>
     <row r="202" spans="1:12" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
-      <c r="B202" s="168"/>
-      <c r="C202" s="169"/>
-      <c r="D202" s="169"/>
-      <c r="E202" s="169"/>
-      <c r="F202" s="169"/>
-      <c r="G202" s="169"/>
-      <c r="H202" s="169"/>
-      <c r="I202" s="169"/>
-      <c r="J202" s="169"/>
-      <c r="K202" s="170"/>
+      <c r="B202" s="164"/>
+      <c r="C202" s="165"/>
+      <c r="D202" s="165"/>
+      <c r="E202" s="165"/>
+      <c r="F202" s="165"/>
+      <c r="G202" s="165"/>
+      <c r="H202" s="165"/>
+      <c r="I202" s="165"/>
+      <c r="J202" s="165"/>
+      <c r="K202" s="166"/>
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
-      <c r="B203" s="168"/>
-      <c r="C203" s="169"/>
-      <c r="D203" s="169"/>
-      <c r="E203" s="169"/>
-      <c r="F203" s="169"/>
-      <c r="G203" s="169"/>
-      <c r="H203" s="169"/>
-      <c r="I203" s="169"/>
-      <c r="J203" s="169"/>
-      <c r="K203" s="170"/>
+      <c r="B203" s="164"/>
+      <c r="C203" s="165"/>
+      <c r="D203" s="165"/>
+      <c r="E203" s="165"/>
+      <c r="F203" s="165"/>
+      <c r="G203" s="165"/>
+      <c r="H203" s="165"/>
+      <c r="I203" s="165"/>
+      <c r="J203" s="165"/>
+      <c r="K203" s="166"/>
       <c r="L203" s="2"/>
     </row>
     <row r="204" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
-      <c r="B204" s="171"/>
-      <c r="C204" s="172"/>
-      <c r="D204" s="172"/>
-      <c r="E204" s="172"/>
-      <c r="F204" s="172"/>
-      <c r="G204" s="172"/>
-      <c r="H204" s="172"/>
-      <c r="I204" s="172"/>
-      <c r="J204" s="172"/>
-      <c r="K204" s="173"/>
+      <c r="B204" s="167"/>
+      <c r="C204" s="168"/>
+      <c r="D204" s="168"/>
+      <c r="E204" s="168"/>
+      <c r="F204" s="168"/>
+      <c r="G204" s="168"/>
+      <c r="H204" s="168"/>
+      <c r="I204" s="168"/>
+      <c r="J204" s="168"/>
+      <c r="K204" s="169"/>
       <c r="L204" s="2"/>
     </row>
     <row r="205" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5695,46 +5694,46 @@
     </row>
     <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
-      <c r="B214" s="187" t="s">
+      <c r="B214" s="217" t="s">
         <v>292</v>
       </c>
-      <c r="C214" s="188"/>
-      <c r="D214" s="188"/>
-      <c r="E214" s="188"/>
-      <c r="F214" s="188"/>
-      <c r="G214" s="188"/>
-      <c r="H214" s="188"/>
-      <c r="I214" s="188"/>
-      <c r="J214" s="188"/>
-      <c r="K214" s="189"/>
+      <c r="C214" s="218"/>
+      <c r="D214" s="218"/>
+      <c r="E214" s="218"/>
+      <c r="F214" s="218"/>
+      <c r="G214" s="218"/>
+      <c r="H214" s="218"/>
+      <c r="I214" s="218"/>
+      <c r="J214" s="218"/>
+      <c r="K214" s="219"/>
       <c r="L214" s="33"/>
     </row>
     <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
-      <c r="B215" s="190"/>
-      <c r="C215" s="191"/>
-      <c r="D215" s="191"/>
-      <c r="E215" s="191"/>
-      <c r="F215" s="191"/>
-      <c r="G215" s="191"/>
-      <c r="H215" s="191"/>
-      <c r="I215" s="191"/>
-      <c r="J215" s="191"/>
-      <c r="K215" s="192"/>
+      <c r="B215" s="220"/>
+      <c r="C215" s="221"/>
+      <c r="D215" s="221"/>
+      <c r="E215" s="221"/>
+      <c r="F215" s="221"/>
+      <c r="G215" s="221"/>
+      <c r="H215" s="221"/>
+      <c r="I215" s="221"/>
+      <c r="J215" s="221"/>
+      <c r="K215" s="222"/>
       <c r="L215" s="59"/>
     </row>
     <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
-      <c r="B216" s="193"/>
-      <c r="C216" s="194"/>
-      <c r="D216" s="194"/>
-      <c r="E216" s="194"/>
-      <c r="F216" s="194"/>
-      <c r="G216" s="194"/>
-      <c r="H216" s="194"/>
-      <c r="I216" s="194"/>
-      <c r="J216" s="194"/>
-      <c r="K216" s="195"/>
+      <c r="B216" s="223"/>
+      <c r="C216" s="224"/>
+      <c r="D216" s="224"/>
+      <c r="E216" s="224"/>
+      <c r="F216" s="224"/>
+      <c r="G216" s="224"/>
+      <c r="H216" s="224"/>
+      <c r="I216" s="224"/>
+      <c r="J216" s="224"/>
+      <c r="K216" s="225"/>
       <c r="L216" s="59"/>
     </row>
     <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5767,10 +5766,10 @@
     </row>
     <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
-      <c r="B219" s="149" t="s">
+      <c r="B219" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="C219" s="149"/>
+      <c r="C219" s="158"/>
       <c r="D219" s="81"/>
       <c r="E219" s="78"/>
       <c r="F219" s="12"/>
@@ -5887,18 +5886,18 @@
     </row>
     <row r="227" spans="1:13" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
-      <c r="B227" s="159" t="s">
+      <c r="B227" s="239" t="s">
         <v>291</v>
       </c>
-      <c r="C227" s="160"/>
-      <c r="D227" s="160"/>
-      <c r="E227" s="160"/>
-      <c r="F227" s="160"/>
-      <c r="G227" s="160"/>
-      <c r="H227" s="160"/>
-      <c r="I227" s="160"/>
-      <c r="J227" s="160"/>
-      <c r="K227" s="161"/>
+      <c r="C227" s="240"/>
+      <c r="D227" s="240"/>
+      <c r="E227" s="240"/>
+      <c r="F227" s="240"/>
+      <c r="G227" s="240"/>
+      <c r="H227" s="240"/>
+      <c r="I227" s="240"/>
+      <c r="J227" s="240"/>
+      <c r="K227" s="241"/>
     </row>
     <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -6000,48 +5999,48 @@
     </row>
     <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
-      <c r="B235" s="248" t="s">
+      <c r="B235" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="C235" s="249"/>
-      <c r="D235" s="249"/>
-      <c r="E235" s="249"/>
-      <c r="F235" s="249"/>
-      <c r="G235" s="249"/>
-      <c r="H235" s="249"/>
-      <c r="I235" s="249"/>
-      <c r="J235" s="249"/>
-      <c r="K235" s="250"/>
+      <c r="C235" s="171"/>
+      <c r="D235" s="171"/>
+      <c r="E235" s="171"/>
+      <c r="F235" s="171"/>
+      <c r="G235" s="171"/>
+      <c r="H235" s="171"/>
+      <c r="I235" s="171"/>
+      <c r="J235" s="171"/>
+      <c r="K235" s="172"/>
       <c r="L235" s="33"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
-      <c r="B236" s="251"/>
-      <c r="C236" s="252"/>
-      <c r="D236" s="252"/>
-      <c r="E236" s="252"/>
-      <c r="F236" s="252"/>
-      <c r="G236" s="252"/>
-      <c r="H236" s="252"/>
-      <c r="I236" s="252"/>
-      <c r="J236" s="252"/>
-      <c r="K236" s="253"/>
+      <c r="B236" s="173"/>
+      <c r="C236" s="174"/>
+      <c r="D236" s="174"/>
+      <c r="E236" s="174"/>
+      <c r="F236" s="174"/>
+      <c r="G236" s="174"/>
+      <c r="H236" s="174"/>
+      <c r="I236" s="174"/>
+      <c r="J236" s="174"/>
+      <c r="K236" s="175"/>
       <c r="L236" s="59"/>
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
-      <c r="B237" s="254"/>
-      <c r="C237" s="255"/>
-      <c r="D237" s="255"/>
-      <c r="E237" s="255"/>
-      <c r="F237" s="255"/>
-      <c r="G237" s="255"/>
-      <c r="H237" s="255"/>
-      <c r="I237" s="255"/>
-      <c r="J237" s="255"/>
-      <c r="K237" s="256"/>
+      <c r="B237" s="176"/>
+      <c r="C237" s="177"/>
+      <c r="D237" s="177"/>
+      <c r="E237" s="177"/>
+      <c r="F237" s="177"/>
+      <c r="G237" s="177"/>
+      <c r="H237" s="177"/>
+      <c r="I237" s="177"/>
+      <c r="J237" s="177"/>
+      <c r="K237" s="178"/>
       <c r="L237" s="59"/>
       <c r="M237" s="2"/>
     </row>
@@ -6149,33 +6148,33 @@
     </row>
     <row r="245" spans="1:11" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
-      <c r="B245" s="152" t="s">
+      <c r="B245" s="250" t="s">
         <v>269</v>
       </c>
-      <c r="C245" s="152"/>
-      <c r="D245" s="152"/>
-      <c r="E245" s="152"/>
-      <c r="F245" s="152"/>
-      <c r="G245" s="152"/>
-      <c r="H245" s="152"/>
-      <c r="I245" s="152"/>
-      <c r="J245" s="152"/>
-      <c r="K245" s="152"/>
+      <c r="C245" s="250"/>
+      <c r="D245" s="250"/>
+      <c r="E245" s="250"/>
+      <c r="F245" s="250"/>
+      <c r="G245" s="250"/>
+      <c r="H245" s="250"/>
+      <c r="I245" s="250"/>
+      <c r="J245" s="250"/>
+      <c r="K245" s="250"/>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
-      <c r="B246" s="152" t="s">
+      <c r="B246" s="250" t="s">
         <v>133</v>
       </c>
-      <c r="C246" s="152"/>
-      <c r="D246" s="152"/>
-      <c r="E246" s="152"/>
-      <c r="F246" s="152"/>
-      <c r="G246" s="152"/>
-      <c r="H246" s="152"/>
-      <c r="I246" s="152"/>
-      <c r="J246" s="152"/>
-      <c r="K246" s="152"/>
+      <c r="C246" s="250"/>
+      <c r="D246" s="250"/>
+      <c r="E246" s="250"/>
+      <c r="F246" s="250"/>
+      <c r="G246" s="250"/>
+      <c r="H246" s="250"/>
+      <c r="I246" s="250"/>
+      <c r="J246" s="250"/>
+      <c r="K246" s="250"/>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -6368,78 +6367,78 @@
     </row>
     <row r="260" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
-      <c r="B260" s="165" t="s">
+      <c r="B260" s="161" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="166"/>
-      <c r="D260" s="166"/>
-      <c r="E260" s="166"/>
-      <c r="F260" s="166"/>
-      <c r="G260" s="166"/>
-      <c r="H260" s="166"/>
-      <c r="I260" s="166"/>
-      <c r="J260" s="166"/>
-      <c r="K260" s="167"/>
+      <c r="C260" s="162"/>
+      <c r="D260" s="162"/>
+      <c r="E260" s="162"/>
+      <c r="F260" s="162"/>
+      <c r="G260" s="162"/>
+      <c r="H260" s="162"/>
+      <c r="I260" s="162"/>
+      <c r="J260" s="162"/>
+      <c r="K260" s="163"/>
       <c r="L260" s="33"/>
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
-      <c r="B261" s="168"/>
-      <c r="C261" s="169"/>
-      <c r="D261" s="169"/>
-      <c r="E261" s="169"/>
-      <c r="F261" s="169"/>
-      <c r="G261" s="169"/>
-      <c r="H261" s="169"/>
-      <c r="I261" s="169"/>
-      <c r="J261" s="169"/>
-      <c r="K261" s="170"/>
+      <c r="B261" s="164"/>
+      <c r="C261" s="165"/>
+      <c r="D261" s="165"/>
+      <c r="E261" s="165"/>
+      <c r="F261" s="165"/>
+      <c r="G261" s="165"/>
+      <c r="H261" s="165"/>
+      <c r="I261" s="165"/>
+      <c r="J261" s="165"/>
+      <c r="K261" s="166"/>
       <c r="L261" s="59"/>
       <c r="M261" s="2"/>
     </row>
     <row r="262" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
-      <c r="B262" s="168"/>
-      <c r="C262" s="169"/>
-      <c r="D262" s="169"/>
-      <c r="E262" s="169"/>
-      <c r="F262" s="169"/>
-      <c r="G262" s="169"/>
-      <c r="H262" s="169"/>
-      <c r="I262" s="169"/>
-      <c r="J262" s="169"/>
-      <c r="K262" s="170"/>
+      <c r="B262" s="164"/>
+      <c r="C262" s="165"/>
+      <c r="D262" s="165"/>
+      <c r="E262" s="165"/>
+      <c r="F262" s="165"/>
+      <c r="G262" s="165"/>
+      <c r="H262" s="165"/>
+      <c r="I262" s="165"/>
+      <c r="J262" s="165"/>
+      <c r="K262" s="166"/>
       <c r="L262" s="59"/>
       <c r="M262" s="2"/>
     </row>
     <row r="263" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
-      <c r="B263" s="168"/>
-      <c r="C263" s="169"/>
-      <c r="D263" s="169"/>
-      <c r="E263" s="169"/>
-      <c r="F263" s="169"/>
-      <c r="G263" s="169"/>
-      <c r="H263" s="169"/>
-      <c r="I263" s="169"/>
-      <c r="J263" s="169"/>
-      <c r="K263" s="170"/>
+      <c r="B263" s="164"/>
+      <c r="C263" s="165"/>
+      <c r="D263" s="165"/>
+      <c r="E263" s="165"/>
+      <c r="F263" s="165"/>
+      <c r="G263" s="165"/>
+      <c r="H263" s="165"/>
+      <c r="I263" s="165"/>
+      <c r="J263" s="165"/>
+      <c r="K263" s="166"/>
       <c r="L263" s="59"/>
       <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
-      <c r="B264" s="171"/>
-      <c r="C264" s="172"/>
-      <c r="D264" s="172"/>
-      <c r="E264" s="172"/>
-      <c r="F264" s="172"/>
-      <c r="G264" s="172"/>
-      <c r="H264" s="172"/>
-      <c r="I264" s="172"/>
-      <c r="J264" s="172"/>
-      <c r="K264" s="173"/>
+      <c r="B264" s="167"/>
+      <c r="C264" s="168"/>
+      <c r="D264" s="168"/>
+      <c r="E264" s="168"/>
+      <c r="F264" s="168"/>
+      <c r="G264" s="168"/>
+      <c r="H264" s="168"/>
+      <c r="I264" s="168"/>
+      <c r="J264" s="168"/>
+      <c r="K264" s="169"/>
       <c r="L264" s="59"/>
       <c r="M264" s="2"/>
     </row>
@@ -6492,27 +6491,27 @@
     </row>
     <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
-      <c r="B268" s="147" t="s">
+      <c r="B268" s="199" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="147"/>
-      <c r="D268" s="154" t="s">
+      <c r="C268" s="199"/>
+      <c r="D268" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="E268" s="155"/>
-      <c r="F268" s="155"/>
-      <c r="G268" s="155"/>
-      <c r="H268" s="155"/>
-      <c r="I268" s="155"/>
-      <c r="J268" s="155"/>
-      <c r="K268" s="156"/>
+      <c r="E268" s="197"/>
+      <c r="F268" s="197"/>
+      <c r="G268" s="197"/>
+      <c r="H268" s="197"/>
+      <c r="I268" s="197"/>
+      <c r="J268" s="197"/>
+      <c r="K268" s="192"/>
       <c r="L268" s="33"/>
       <c r="M268" s="2"/>
     </row>
     <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
-      <c r="B269" s="151"/>
-      <c r="C269" s="151"/>
+      <c r="B269" s="249"/>
+      <c r="C269" s="249"/>
       <c r="D269" s="70"/>
       <c r="E269" s="72"/>
       <c r="F269" s="72"/>
@@ -6526,8 +6525,8 @@
     </row>
     <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
-      <c r="B270" s="151"/>
-      <c r="C270" s="151"/>
+      <c r="B270" s="249"/>
+      <c r="C270" s="249"/>
       <c r="D270" s="70"/>
       <c r="E270" s="72"/>
       <c r="F270" s="72"/>
@@ -6541,8 +6540,8 @@
     </row>
     <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
-      <c r="B271" s="151"/>
-      <c r="C271" s="151"/>
+      <c r="B271" s="249"/>
+      <c r="C271" s="249"/>
       <c r="D271" s="70"/>
       <c r="E271" s="72"/>
       <c r="F271" s="72"/>
@@ -6556,8 +6555,8 @@
     </row>
     <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
-      <c r="B272" s="151"/>
-      <c r="C272" s="151"/>
+      <c r="B272" s="249"/>
+      <c r="C272" s="249"/>
       <c r="D272" s="70"/>
       <c r="E272" s="72"/>
       <c r="F272" s="72"/>
@@ -6618,78 +6617,78 @@
     </row>
     <row r="276" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
-      <c r="B276" s="153" t="s">
+      <c r="B276" s="251" t="s">
         <v>302</v>
       </c>
-      <c r="C276" s="153"/>
-      <c r="D276" s="153"/>
-      <c r="E276" s="153"/>
-      <c r="F276" s="153"/>
-      <c r="G276" s="153"/>
-      <c r="H276" s="153"/>
-      <c r="I276" s="153"/>
-      <c r="J276" s="153"/>
-      <c r="K276" s="153"/>
+      <c r="C276" s="251"/>
+      <c r="D276" s="251"/>
+      <c r="E276" s="251"/>
+      <c r="F276" s="251"/>
+      <c r="G276" s="251"/>
+      <c r="H276" s="251"/>
+      <c r="I276" s="251"/>
+      <c r="J276" s="251"/>
+      <c r="K276" s="251"/>
       <c r="L276" s="33"/>
       <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
-      <c r="B277" s="153"/>
-      <c r="C277" s="153"/>
-      <c r="D277" s="153"/>
-      <c r="E277" s="153"/>
-      <c r="F277" s="153"/>
-      <c r="G277" s="153"/>
-      <c r="H277" s="153"/>
-      <c r="I277" s="153"/>
-      <c r="J277" s="153"/>
-      <c r="K277" s="153"/>
+      <c r="B277" s="251"/>
+      <c r="C277" s="251"/>
+      <c r="D277" s="251"/>
+      <c r="E277" s="251"/>
+      <c r="F277" s="251"/>
+      <c r="G277" s="251"/>
+      <c r="H277" s="251"/>
+      <c r="I277" s="251"/>
+      <c r="J277" s="251"/>
+      <c r="K277" s="251"/>
       <c r="L277" s="59"/>
       <c r="M277" s="2"/>
     </row>
     <row r="278" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
-      <c r="B278" s="153"/>
-      <c r="C278" s="153"/>
-      <c r="D278" s="153"/>
-      <c r="E278" s="153"/>
-      <c r="F278" s="153"/>
-      <c r="G278" s="153"/>
-      <c r="H278" s="153"/>
-      <c r="I278" s="153"/>
-      <c r="J278" s="153"/>
-      <c r="K278" s="153"/>
+      <c r="B278" s="251"/>
+      <c r="C278" s="251"/>
+      <c r="D278" s="251"/>
+      <c r="E278" s="251"/>
+      <c r="F278" s="251"/>
+      <c r="G278" s="251"/>
+      <c r="H278" s="251"/>
+      <c r="I278" s="251"/>
+      <c r="J278" s="251"/>
+      <c r="K278" s="251"/>
       <c r="L278" s="59"/>
       <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
-      <c r="B279" s="153"/>
-      <c r="C279" s="153"/>
-      <c r="D279" s="153"/>
-      <c r="E279" s="153"/>
-      <c r="F279" s="153"/>
-      <c r="G279" s="153"/>
-      <c r="H279" s="153"/>
-      <c r="I279" s="153"/>
-      <c r="J279" s="153"/>
-      <c r="K279" s="153"/>
+      <c r="B279" s="251"/>
+      <c r="C279" s="251"/>
+      <c r="D279" s="251"/>
+      <c r="E279" s="251"/>
+      <c r="F279" s="251"/>
+      <c r="G279" s="251"/>
+      <c r="H279" s="251"/>
+      <c r="I279" s="251"/>
+      <c r="J279" s="251"/>
+      <c r="K279" s="251"/>
       <c r="L279" s="59"/>
       <c r="M279" s="2"/>
     </row>
     <row r="280" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
-      <c r="B280" s="153"/>
-      <c r="C280" s="153"/>
-      <c r="D280" s="153"/>
-      <c r="E280" s="153"/>
-      <c r="F280" s="153"/>
-      <c r="G280" s="153"/>
-      <c r="H280" s="153"/>
-      <c r="I280" s="153"/>
-      <c r="J280" s="153"/>
-      <c r="K280" s="153"/>
+      <c r="B280" s="251"/>
+      <c r="C280" s="251"/>
+      <c r="D280" s="251"/>
+      <c r="E280" s="251"/>
+      <c r="F280" s="251"/>
+      <c r="G280" s="251"/>
+      <c r="H280" s="251"/>
+      <c r="I280" s="251"/>
+      <c r="J280" s="251"/>
+      <c r="K280" s="251"/>
       <c r="L280" s="59"/>
       <c r="M280" s="2"/>
     </row>
@@ -6742,12 +6741,12 @@
     </row>
     <row r="284" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
-      <c r="B284" s="149" t="s">
+      <c r="B284" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="C284" s="149"/>
-      <c r="D284" s="149"/>
-      <c r="E284" s="150"/>
+      <c r="C284" s="158"/>
+      <c r="D284" s="158"/>
+      <c r="E284" s="159"/>
       <c r="F284" s="105"/>
       <c r="G284" s="24"/>
       <c r="H284" s="24"/>
@@ -6757,10 +6756,10 @@
     </row>
     <row r="285" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
-      <c r="B285" s="149"/>
-      <c r="C285" s="149"/>
-      <c r="D285" s="149"/>
-      <c r="E285" s="149"/>
+      <c r="B285" s="158"/>
+      <c r="C285" s="158"/>
+      <c r="D285" s="158"/>
+      <c r="E285" s="158"/>
       <c r="F285" s="12"/>
       <c r="G285" s="24"/>
       <c r="H285" s="24"/>
@@ -6770,12 +6769,12 @@
     </row>
     <row r="286" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
-      <c r="B286" s="149" t="s">
+      <c r="B286" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="C286" s="149"/>
-      <c r="D286" s="149"/>
-      <c r="E286" s="150"/>
+      <c r="C286" s="158"/>
+      <c r="D286" s="158"/>
+      <c r="E286" s="159"/>
       <c r="F286" s="105"/>
       <c r="G286" s="17" t="s">
         <v>146</v>
@@ -6787,10 +6786,10 @@
     </row>
     <row r="287" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
-      <c r="B287" s="149"/>
-      <c r="C287" s="149"/>
-      <c r="D287" s="149"/>
-      <c r="E287" s="149"/>
+      <c r="B287" s="158"/>
+      <c r="C287" s="158"/>
+      <c r="D287" s="158"/>
+      <c r="E287" s="158"/>
       <c r="F287" s="12"/>
       <c r="G287" s="24"/>
       <c r="H287" s="24"/>
@@ -6800,12 +6799,12 @@
     </row>
     <row r="288" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
-      <c r="B288" s="149" t="s">
+      <c r="B288" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="C288" s="149"/>
-      <c r="D288" s="149"/>
-      <c r="E288" s="150"/>
+      <c r="C288" s="158"/>
+      <c r="D288" s="158"/>
+      <c r="E288" s="159"/>
       <c r="F288" s="105"/>
       <c r="G288" s="24"/>
       <c r="H288" s="24"/>
@@ -6828,12 +6827,12 @@
     </row>
     <row r="290" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
-      <c r="B290" s="149" t="s">
+      <c r="B290" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="C290" s="149"/>
-      <c r="D290" s="149"/>
-      <c r="E290" s="150"/>
+      <c r="C290" s="158"/>
+      <c r="D290" s="158"/>
+      <c r="E290" s="159"/>
       <c r="F290" s="105"/>
       <c r="G290" s="24"/>
       <c r="H290" s="24"/>
@@ -6856,12 +6855,12 @@
     </row>
     <row r="292" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
-      <c r="B292" s="149" t="s">
+      <c r="B292" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="C292" s="149"/>
-      <c r="D292" s="149"/>
-      <c r="E292" s="150"/>
+      <c r="C292" s="158"/>
+      <c r="D292" s="158"/>
+      <c r="E292" s="159"/>
       <c r="F292" s="105"/>
       <c r="G292" s="24"/>
       <c r="H292" s="24"/>
@@ -6957,77 +6956,77 @@
     </row>
     <row r="299" spans="1:13" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
-      <c r="B299" s="165" t="s">
+      <c r="B299" s="161" t="s">
         <v>305</v>
       </c>
-      <c r="C299" s="166"/>
-      <c r="D299" s="166"/>
-      <c r="E299" s="166"/>
-      <c r="F299" s="166"/>
-      <c r="G299" s="166"/>
-      <c r="H299" s="166"/>
-      <c r="I299" s="166"/>
-      <c r="J299" s="166"/>
-      <c r="K299" s="167"/>
+      <c r="C299" s="162"/>
+      <c r="D299" s="162"/>
+      <c r="E299" s="162"/>
+      <c r="F299" s="162"/>
+      <c r="G299" s="162"/>
+      <c r="H299" s="162"/>
+      <c r="I299" s="162"/>
+      <c r="J299" s="162"/>
+      <c r="K299" s="163"/>
       <c r="L299" s="20"/>
     </row>
     <row r="300" spans="1:13" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
-      <c r="B300" s="168"/>
-      <c r="C300" s="169"/>
-      <c r="D300" s="169"/>
-      <c r="E300" s="169"/>
-      <c r="F300" s="169"/>
-      <c r="G300" s="169"/>
-      <c r="H300" s="169"/>
-      <c r="I300" s="169"/>
-      <c r="J300" s="169"/>
-      <c r="K300" s="170"/>
+      <c r="B300" s="164"/>
+      <c r="C300" s="165"/>
+      <c r="D300" s="165"/>
+      <c r="E300" s="165"/>
+      <c r="F300" s="165"/>
+      <c r="G300" s="165"/>
+      <c r="H300" s="165"/>
+      <c r="I300" s="165"/>
+      <c r="J300" s="165"/>
+      <c r="K300" s="166"/>
       <c r="L300" s="59"/>
       <c r="M300" s="2"/>
     </row>
     <row r="301" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
-      <c r="B301" s="168"/>
-      <c r="C301" s="169"/>
-      <c r="D301" s="169"/>
-      <c r="E301" s="169"/>
-      <c r="F301" s="169"/>
-      <c r="G301" s="169"/>
-      <c r="H301" s="169"/>
-      <c r="I301" s="169"/>
-      <c r="J301" s="169"/>
-      <c r="K301" s="170"/>
+      <c r="B301" s="164"/>
+      <c r="C301" s="165"/>
+      <c r="D301" s="165"/>
+      <c r="E301" s="165"/>
+      <c r="F301" s="165"/>
+      <c r="G301" s="165"/>
+      <c r="H301" s="165"/>
+      <c r="I301" s="165"/>
+      <c r="J301" s="165"/>
+      <c r="K301" s="166"/>
       <c r="L301" s="59"/>
       <c r="M301" s="2"/>
     </row>
     <row r="302" spans="1:13" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
-      <c r="B302" s="168"/>
-      <c r="C302" s="169"/>
-      <c r="D302" s="169"/>
-      <c r="E302" s="169"/>
-      <c r="F302" s="169"/>
-      <c r="G302" s="169"/>
-      <c r="H302" s="169"/>
-      <c r="I302" s="169"/>
-      <c r="J302" s="169"/>
-      <c r="K302" s="170"/>
+      <c r="B302" s="164"/>
+      <c r="C302" s="165"/>
+      <c r="D302" s="165"/>
+      <c r="E302" s="165"/>
+      <c r="F302" s="165"/>
+      <c r="G302" s="165"/>
+      <c r="H302" s="165"/>
+      <c r="I302" s="165"/>
+      <c r="J302" s="165"/>
+      <c r="K302" s="166"/>
       <c r="L302" s="59"/>
       <c r="M302" s="2"/>
     </row>
     <row r="303" spans="1:13" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
-      <c r="B303" s="171"/>
-      <c r="C303" s="172"/>
-      <c r="D303" s="172"/>
-      <c r="E303" s="172"/>
-      <c r="F303" s="172"/>
-      <c r="G303" s="172"/>
-      <c r="H303" s="172"/>
-      <c r="I303" s="172"/>
-      <c r="J303" s="172"/>
-      <c r="K303" s="173"/>
+      <c r="B303" s="167"/>
+      <c r="C303" s="168"/>
+      <c r="D303" s="168"/>
+      <c r="E303" s="168"/>
+      <c r="F303" s="168"/>
+      <c r="G303" s="168"/>
+      <c r="H303" s="168"/>
+      <c r="I303" s="168"/>
+      <c r="J303" s="168"/>
+      <c r="K303" s="169"/>
       <c r="L303" s="59"/>
       <c r="M303" s="2"/>
     </row>
@@ -7064,78 +7063,78 @@
     </row>
     <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
-      <c r="B306" s="165" t="s">
+      <c r="B306" s="161" t="s">
         <v>293</v>
       </c>
-      <c r="C306" s="166"/>
-      <c r="D306" s="166"/>
-      <c r="E306" s="166"/>
-      <c r="F306" s="166"/>
-      <c r="G306" s="166"/>
-      <c r="H306" s="166"/>
-      <c r="I306" s="166"/>
-      <c r="J306" s="166"/>
-      <c r="K306" s="167"/>
+      <c r="C306" s="162"/>
+      <c r="D306" s="162"/>
+      <c r="E306" s="162"/>
+      <c r="F306" s="162"/>
+      <c r="G306" s="162"/>
+      <c r="H306" s="162"/>
+      <c r="I306" s="162"/>
+      <c r="J306" s="162"/>
+      <c r="K306" s="163"/>
       <c r="L306" s="33"/>
       <c r="M306" s="2"/>
     </row>
     <row r="307" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
-      <c r="B307" s="168"/>
-      <c r="C307" s="169"/>
-      <c r="D307" s="169"/>
-      <c r="E307" s="169"/>
-      <c r="F307" s="169"/>
-      <c r="G307" s="169"/>
-      <c r="H307" s="169"/>
-      <c r="I307" s="169"/>
-      <c r="J307" s="169"/>
-      <c r="K307" s="170"/>
+      <c r="B307" s="164"/>
+      <c r="C307" s="165"/>
+      <c r="D307" s="165"/>
+      <c r="E307" s="165"/>
+      <c r="F307" s="165"/>
+      <c r="G307" s="165"/>
+      <c r="H307" s="165"/>
+      <c r="I307" s="165"/>
+      <c r="J307" s="165"/>
+      <c r="K307" s="166"/>
       <c r="L307" s="59"/>
       <c r="M307" s="2"/>
     </row>
     <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
-      <c r="B308" s="168"/>
-      <c r="C308" s="169"/>
-      <c r="D308" s="169"/>
-      <c r="E308" s="169"/>
-      <c r="F308" s="169"/>
-      <c r="G308" s="169"/>
-      <c r="H308" s="169"/>
-      <c r="I308" s="169"/>
-      <c r="J308" s="169"/>
-      <c r="K308" s="170"/>
+      <c r="B308" s="164"/>
+      <c r="C308" s="165"/>
+      <c r="D308" s="165"/>
+      <c r="E308" s="165"/>
+      <c r="F308" s="165"/>
+      <c r="G308" s="165"/>
+      <c r="H308" s="165"/>
+      <c r="I308" s="165"/>
+      <c r="J308" s="165"/>
+      <c r="K308" s="166"/>
       <c r="L308" s="59"/>
       <c r="M308" s="2"/>
     </row>
     <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
-      <c r="B309" s="168"/>
-      <c r="C309" s="169"/>
-      <c r="D309" s="169"/>
-      <c r="E309" s="169"/>
-      <c r="F309" s="169"/>
-      <c r="G309" s="169"/>
-      <c r="H309" s="169"/>
-      <c r="I309" s="169"/>
-      <c r="J309" s="169"/>
-      <c r="K309" s="170"/>
+      <c r="B309" s="164"/>
+      <c r="C309" s="165"/>
+      <c r="D309" s="165"/>
+      <c r="E309" s="165"/>
+      <c r="F309" s="165"/>
+      <c r="G309" s="165"/>
+      <c r="H309" s="165"/>
+      <c r="I309" s="165"/>
+      <c r="J309" s="165"/>
+      <c r="K309" s="166"/>
       <c r="L309" s="59"/>
       <c r="M309" s="2"/>
     </row>
     <row r="310" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
-      <c r="B310" s="171"/>
-      <c r="C310" s="172"/>
-      <c r="D310" s="172"/>
-      <c r="E310" s="172"/>
-      <c r="F310" s="172"/>
-      <c r="G310" s="172"/>
-      <c r="H310" s="172"/>
-      <c r="I310" s="172"/>
-      <c r="J310" s="172"/>
-      <c r="K310" s="173"/>
+      <c r="B310" s="167"/>
+      <c r="C310" s="168"/>
+      <c r="D310" s="168"/>
+      <c r="E310" s="168"/>
+      <c r="F310" s="168"/>
+      <c r="G310" s="168"/>
+      <c r="H310" s="168"/>
+      <c r="I310" s="168"/>
+      <c r="J310" s="168"/>
+      <c r="K310" s="169"/>
       <c r="L310" s="59"/>
       <c r="M310" s="2"/>
     </row>
@@ -7305,78 +7304,78 @@
     </row>
     <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
-      <c r="B321" s="165" t="s">
+      <c r="B321" s="161" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="166"/>
-      <c r="D321" s="166"/>
-      <c r="E321" s="166"/>
-      <c r="F321" s="166"/>
-      <c r="G321" s="166"/>
-      <c r="H321" s="166"/>
-      <c r="I321" s="166"/>
-      <c r="J321" s="166"/>
-      <c r="K321" s="167"/>
+      <c r="C321" s="162"/>
+      <c r="D321" s="162"/>
+      <c r="E321" s="162"/>
+      <c r="F321" s="162"/>
+      <c r="G321" s="162"/>
+      <c r="H321" s="162"/>
+      <c r="I321" s="162"/>
+      <c r="J321" s="162"/>
+      <c r="K321" s="163"/>
       <c r="L321" s="33"/>
       <c r="M321" s="2"/>
     </row>
     <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
-      <c r="B322" s="168"/>
-      <c r="C322" s="169"/>
-      <c r="D322" s="169"/>
-      <c r="E322" s="169"/>
-      <c r="F322" s="169"/>
-      <c r="G322" s="169"/>
-      <c r="H322" s="169"/>
-      <c r="I322" s="169"/>
-      <c r="J322" s="169"/>
-      <c r="K322" s="170"/>
+      <c r="B322" s="164"/>
+      <c r="C322" s="165"/>
+      <c r="D322" s="165"/>
+      <c r="E322" s="165"/>
+      <c r="F322" s="165"/>
+      <c r="G322" s="165"/>
+      <c r="H322" s="165"/>
+      <c r="I322" s="165"/>
+      <c r="J322" s="165"/>
+      <c r="K322" s="166"/>
       <c r="L322" s="59"/>
       <c r="M322" s="2"/>
     </row>
     <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
-      <c r="B323" s="168"/>
-      <c r="C323" s="169"/>
-      <c r="D323" s="169"/>
-      <c r="E323" s="169"/>
-      <c r="F323" s="169"/>
-      <c r="G323" s="169"/>
-      <c r="H323" s="169"/>
-      <c r="I323" s="169"/>
-      <c r="J323" s="169"/>
-      <c r="K323" s="170"/>
+      <c r="B323" s="164"/>
+      <c r="C323" s="165"/>
+      <c r="D323" s="165"/>
+      <c r="E323" s="165"/>
+      <c r="F323" s="165"/>
+      <c r="G323" s="165"/>
+      <c r="H323" s="165"/>
+      <c r="I323" s="165"/>
+      <c r="J323" s="165"/>
+      <c r="K323" s="166"/>
       <c r="L323" s="59"/>
       <c r="M323" s="2"/>
     </row>
     <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
-      <c r="B324" s="168"/>
-      <c r="C324" s="169"/>
-      <c r="D324" s="169"/>
-      <c r="E324" s="169"/>
-      <c r="F324" s="169"/>
-      <c r="G324" s="169"/>
-      <c r="H324" s="169"/>
-      <c r="I324" s="169"/>
-      <c r="J324" s="169"/>
-      <c r="K324" s="170"/>
+      <c r="B324" s="164"/>
+      <c r="C324" s="165"/>
+      <c r="D324" s="165"/>
+      <c r="E324" s="165"/>
+      <c r="F324" s="165"/>
+      <c r="G324" s="165"/>
+      <c r="H324" s="165"/>
+      <c r="I324" s="165"/>
+      <c r="J324" s="165"/>
+      <c r="K324" s="166"/>
       <c r="L324" s="59"/>
       <c r="M324" s="2"/>
     </row>
     <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
-      <c r="B325" s="171"/>
-      <c r="C325" s="172"/>
-      <c r="D325" s="172"/>
-      <c r="E325" s="172"/>
-      <c r="F325" s="172"/>
-      <c r="G325" s="172"/>
-      <c r="H325" s="172"/>
-      <c r="I325" s="172"/>
-      <c r="J325" s="172"/>
-      <c r="K325" s="173"/>
+      <c r="B325" s="167"/>
+      <c r="C325" s="168"/>
+      <c r="D325" s="168"/>
+      <c r="E325" s="168"/>
+      <c r="F325" s="168"/>
+      <c r="G325" s="168"/>
+      <c r="H325" s="168"/>
+      <c r="I325" s="168"/>
+      <c r="J325" s="168"/>
+      <c r="K325" s="169"/>
       <c r="L325" s="59"/>
       <c r="M325" s="2"/>
     </row>
@@ -7397,18 +7396,18 @@
     </row>
     <row r="327" spans="1:13" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
-      <c r="B327" s="247" t="s">
+      <c r="B327" s="160" t="s">
         <v>156</v>
       </c>
-      <c r="C327" s="247"/>
-      <c r="D327" s="247"/>
-      <c r="E327" s="247"/>
-      <c r="F327" s="247"/>
-      <c r="G327" s="247"/>
-      <c r="H327" s="247"/>
-      <c r="I327" s="247"/>
-      <c r="J327" s="247"/>
-      <c r="K327" s="247"/>
+      <c r="C327" s="160"/>
+      <c r="D327" s="160"/>
+      <c r="E327" s="160"/>
+      <c r="F327" s="160"/>
+      <c r="G327" s="160"/>
+      <c r="H327" s="160"/>
+      <c r="I327" s="160"/>
+      <c r="J327" s="160"/>
+      <c r="K327" s="160"/>
       <c r="L327" s="19"/>
       <c r="M327" s="2"/>
     </row>
@@ -7516,74 +7515,74 @@
     </row>
     <row r="335" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
-      <c r="B335" s="248" t="s">
+      <c r="B335" s="170" t="s">
         <v>252</v>
       </c>
-      <c r="C335" s="249"/>
-      <c r="D335" s="249"/>
-      <c r="E335" s="249"/>
-      <c r="F335" s="249"/>
-      <c r="G335" s="249"/>
-      <c r="H335" s="249"/>
-      <c r="I335" s="249"/>
-      <c r="J335" s="249"/>
-      <c r="K335" s="250"/>
+      <c r="C335" s="171"/>
+      <c r="D335" s="171"/>
+      <c r="E335" s="171"/>
+      <c r="F335" s="171"/>
+      <c r="G335" s="171"/>
+      <c r="H335" s="171"/>
+      <c r="I335" s="171"/>
+      <c r="J335" s="171"/>
+      <c r="K335" s="172"/>
       <c r="L335" s="33"/>
     </row>
     <row r="336" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
-      <c r="B336" s="251"/>
-      <c r="C336" s="252"/>
-      <c r="D336" s="252"/>
-      <c r="E336" s="252"/>
-      <c r="F336" s="252"/>
-      <c r="G336" s="252"/>
-      <c r="H336" s="252"/>
-      <c r="I336" s="252"/>
-      <c r="J336" s="252"/>
-      <c r="K336" s="253"/>
+      <c r="B336" s="173"/>
+      <c r="C336" s="174"/>
+      <c r="D336" s="174"/>
+      <c r="E336" s="174"/>
+      <c r="F336" s="174"/>
+      <c r="G336" s="174"/>
+      <c r="H336" s="174"/>
+      <c r="I336" s="174"/>
+      <c r="J336" s="174"/>
+      <c r="K336" s="175"/>
       <c r="L336" s="59"/>
     </row>
     <row r="337" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
-      <c r="B337" s="251"/>
-      <c r="C337" s="252"/>
-      <c r="D337" s="252"/>
-      <c r="E337" s="252"/>
-      <c r="F337" s="252"/>
-      <c r="G337" s="252"/>
-      <c r="H337" s="252"/>
-      <c r="I337" s="252"/>
-      <c r="J337" s="252"/>
-      <c r="K337" s="253"/>
+      <c r="B337" s="173"/>
+      <c r="C337" s="174"/>
+      <c r="D337" s="174"/>
+      <c r="E337" s="174"/>
+      <c r="F337" s="174"/>
+      <c r="G337" s="174"/>
+      <c r="H337" s="174"/>
+      <c r="I337" s="174"/>
+      <c r="J337" s="174"/>
+      <c r="K337" s="175"/>
       <c r="L337" s="59"/>
     </row>
     <row r="338" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
-      <c r="B338" s="251"/>
-      <c r="C338" s="252"/>
-      <c r="D338" s="252"/>
-      <c r="E338" s="252"/>
-      <c r="F338" s="252"/>
-      <c r="G338" s="252"/>
-      <c r="H338" s="252"/>
-      <c r="I338" s="252"/>
-      <c r="J338" s="252"/>
-      <c r="K338" s="253"/>
+      <c r="B338" s="173"/>
+      <c r="C338" s="174"/>
+      <c r="D338" s="174"/>
+      <c r="E338" s="174"/>
+      <c r="F338" s="174"/>
+      <c r="G338" s="174"/>
+      <c r="H338" s="174"/>
+      <c r="I338" s="174"/>
+      <c r="J338" s="174"/>
+      <c r="K338" s="175"/>
       <c r="L338" s="59"/>
     </row>
     <row r="339" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
-      <c r="B339" s="254"/>
-      <c r="C339" s="255"/>
-      <c r="D339" s="255"/>
-      <c r="E339" s="255"/>
-      <c r="F339" s="255"/>
-      <c r="G339" s="255"/>
-      <c r="H339" s="255"/>
-      <c r="I339" s="255"/>
-      <c r="J339" s="255"/>
-      <c r="K339" s="256"/>
+      <c r="B339" s="176"/>
+      <c r="C339" s="177"/>
+      <c r="D339" s="177"/>
+      <c r="E339" s="177"/>
+      <c r="F339" s="177"/>
+      <c r="G339" s="177"/>
+      <c r="H339" s="177"/>
+      <c r="I339" s="177"/>
+      <c r="J339" s="177"/>
+      <c r="K339" s="178"/>
       <c r="L339" s="59"/>
     </row>
     <row r="340" spans="1:12" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7602,18 +7601,18 @@
     </row>
     <row r="341" spans="1:12" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
-      <c r="B341" s="247" t="s">
+      <c r="B341" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="C341" s="247"/>
-      <c r="D341" s="247"/>
-      <c r="E341" s="247"/>
-      <c r="F341" s="247"/>
-      <c r="G341" s="247"/>
-      <c r="H341" s="247"/>
-      <c r="I341" s="247"/>
-      <c r="J341" s="247"/>
-      <c r="K341" s="247"/>
+      <c r="C341" s="160"/>
+      <c r="D341" s="160"/>
+      <c r="E341" s="160"/>
+      <c r="F341" s="160"/>
+      <c r="G341" s="160"/>
+      <c r="H341" s="160"/>
+      <c r="I341" s="160"/>
+      <c r="J341" s="160"/>
+      <c r="K341" s="160"/>
       <c r="L341" s="59"/>
     </row>
     <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -7659,12 +7658,12 @@
     </row>
     <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
-      <c r="B345" s="175" t="s">
+      <c r="B345" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="C345" s="175"/>
-      <c r="D345" s="175"/>
-      <c r="E345" s="175"/>
+      <c r="C345" s="157"/>
+      <c r="D345" s="157"/>
+      <c r="E345" s="157"/>
       <c r="G345" s="105"/>
       <c r="H345" s="24"/>
       <c r="I345" s="24"/>
@@ -7685,12 +7684,12 @@
     </row>
     <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
-      <c r="B347" s="175" t="s">
+      <c r="B347" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="C347" s="175"/>
-      <c r="D347" s="175"/>
-      <c r="E347" s="175"/>
+      <c r="C347" s="157"/>
+      <c r="D347" s="157"/>
+      <c r="E347" s="157"/>
       <c r="G347" s="105"/>
       <c r="H347" s="17" t="s">
         <v>164</v>
@@ -7713,13 +7712,13 @@
     </row>
     <row r="349" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
-      <c r="B349" s="175" t="s">
+      <c r="B349" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="150"/>
+      <c r="C349" s="157"/>
+      <c r="D349" s="157"/>
+      <c r="E349" s="157"/>
+      <c r="F349" s="159"/>
       <c r="G349" s="105"/>
       <c r="H349" s="24"/>
       <c r="I349" s="24"/>
@@ -7740,13 +7739,13 @@
     </row>
     <row r="351" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
-      <c r="B351" s="175" t="s">
+      <c r="B351" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C351" s="175"/>
-      <c r="D351" s="175"/>
-      <c r="E351" s="175"/>
-      <c r="F351" s="150"/>
+      <c r="C351" s="157"/>
+      <c r="D351" s="157"/>
+      <c r="E351" s="157"/>
+      <c r="F351" s="159"/>
       <c r="G351" s="105"/>
       <c r="H351" s="24"/>
       <c r="I351" s="24"/>
@@ -7767,13 +7766,13 @@
     </row>
     <row r="353" spans="1:13" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
-      <c r="B353" s="175" t="s">
+      <c r="B353" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C353" s="175"/>
-      <c r="D353" s="175"/>
-      <c r="E353" s="175"/>
-      <c r="F353" s="150"/>
+      <c r="C353" s="157"/>
+      <c r="D353" s="157"/>
+      <c r="E353" s="157"/>
+      <c r="F353" s="159"/>
       <c r="G353" s="105"/>
       <c r="H353" s="24"/>
       <c r="I353" s="24"/>
@@ -7840,78 +7839,78 @@
     </row>
     <row r="358" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
-      <c r="B358" s="165" t="s">
+      <c r="B358" s="161" t="s">
         <v>295</v>
       </c>
-      <c r="C358" s="166"/>
-      <c r="D358" s="166"/>
-      <c r="E358" s="166"/>
-      <c r="F358" s="166"/>
-      <c r="G358" s="166"/>
-      <c r="H358" s="166"/>
-      <c r="I358" s="166"/>
-      <c r="J358" s="166"/>
-      <c r="K358" s="167"/>
+      <c r="C358" s="162"/>
+      <c r="D358" s="162"/>
+      <c r="E358" s="162"/>
+      <c r="F358" s="162"/>
+      <c r="G358" s="162"/>
+      <c r="H358" s="162"/>
+      <c r="I358" s="162"/>
+      <c r="J358" s="162"/>
+      <c r="K358" s="163"/>
       <c r="L358" s="33"/>
       <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
-      <c r="B359" s="168"/>
-      <c r="C359" s="169"/>
-      <c r="D359" s="169"/>
-      <c r="E359" s="169"/>
-      <c r="F359" s="169"/>
-      <c r="G359" s="169"/>
-      <c r="H359" s="169"/>
-      <c r="I359" s="169"/>
-      <c r="J359" s="169"/>
-      <c r="K359" s="170"/>
+      <c r="B359" s="164"/>
+      <c r="C359" s="165"/>
+      <c r="D359" s="165"/>
+      <c r="E359" s="165"/>
+      <c r="F359" s="165"/>
+      <c r="G359" s="165"/>
+      <c r="H359" s="165"/>
+      <c r="I359" s="165"/>
+      <c r="J359" s="165"/>
+      <c r="K359" s="166"/>
       <c r="L359" s="59"/>
       <c r="M359" s="2"/>
     </row>
     <row r="360" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
-      <c r="B360" s="168"/>
-      <c r="C360" s="169"/>
-      <c r="D360" s="169"/>
-      <c r="E360" s="169"/>
-      <c r="F360" s="169"/>
-      <c r="G360" s="169"/>
-      <c r="H360" s="169"/>
-      <c r="I360" s="169"/>
-      <c r="J360" s="169"/>
-      <c r="K360" s="170"/>
+      <c r="B360" s="164"/>
+      <c r="C360" s="165"/>
+      <c r="D360" s="165"/>
+      <c r="E360" s="165"/>
+      <c r="F360" s="165"/>
+      <c r="G360" s="165"/>
+      <c r="H360" s="165"/>
+      <c r="I360" s="165"/>
+      <c r="J360" s="165"/>
+      <c r="K360" s="166"/>
       <c r="L360" s="59"/>
       <c r="M360" s="2"/>
     </row>
     <row r="361" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
-      <c r="B361" s="168"/>
-      <c r="C361" s="169"/>
-      <c r="D361" s="169"/>
-      <c r="E361" s="169"/>
-      <c r="F361" s="169"/>
-      <c r="G361" s="169"/>
-      <c r="H361" s="169"/>
-      <c r="I361" s="169"/>
-      <c r="J361" s="169"/>
-      <c r="K361" s="170"/>
+      <c r="B361" s="164"/>
+      <c r="C361" s="165"/>
+      <c r="D361" s="165"/>
+      <c r="E361" s="165"/>
+      <c r="F361" s="165"/>
+      <c r="G361" s="165"/>
+      <c r="H361" s="165"/>
+      <c r="I361" s="165"/>
+      <c r="J361" s="165"/>
+      <c r="K361" s="166"/>
       <c r="L361" s="59"/>
       <c r="M361" s="2"/>
     </row>
     <row r="362" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
-      <c r="B362" s="171"/>
-      <c r="C362" s="172"/>
-      <c r="D362" s="172"/>
-      <c r="E362" s="172"/>
-      <c r="F362" s="172"/>
-      <c r="G362" s="172"/>
-      <c r="H362" s="172"/>
-      <c r="I362" s="172"/>
-      <c r="J362" s="172"/>
-      <c r="K362" s="173"/>
+      <c r="B362" s="167"/>
+      <c r="C362" s="168"/>
+      <c r="D362" s="168"/>
+      <c r="E362" s="168"/>
+      <c r="F362" s="168"/>
+      <c r="G362" s="168"/>
+      <c r="H362" s="168"/>
+      <c r="I362" s="168"/>
+      <c r="J362" s="168"/>
+      <c r="K362" s="169"/>
       <c r="L362" s="59"/>
       <c r="M362" s="2"/>
     </row>
@@ -7982,27 +7981,27 @@
     </row>
     <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
-      <c r="B367" s="238" t="s">
+      <c r="B367" s="183" t="s">
         <v>253</v>
       </c>
-      <c r="C367" s="239"/>
-      <c r="D367" s="229" t="s">
+      <c r="C367" s="184"/>
+      <c r="D367" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="E367" s="230"/>
-      <c r="F367" s="230"/>
-      <c r="G367" s="230"/>
-      <c r="H367" s="230"/>
-      <c r="I367" s="230"/>
-      <c r="J367" s="230"/>
-      <c r="K367" s="231"/>
+      <c r="E367" s="179"/>
+      <c r="F367" s="179"/>
+      <c r="G367" s="179"/>
+      <c r="H367" s="179"/>
+      <c r="I367" s="179"/>
+      <c r="J367" s="179"/>
+      <c r="K367" s="148"/>
       <c r="L367" s="19"/>
       <c r="M367" s="2"/>
     </row>
     <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
-      <c r="B368" s="229"/>
-      <c r="C368" s="231"/>
+      <c r="B368" s="147"/>
+      <c r="C368" s="148"/>
       <c r="D368" s="70"/>
       <c r="E368" s="72"/>
       <c r="F368" s="72"/>
@@ -8016,18 +8015,18 @@
     </row>
     <row r="369" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
-      <c r="B369" s="174" t="s">
+      <c r="B369" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="C369" s="174"/>
-      <c r="D369" s="174"/>
-      <c r="E369" s="174"/>
-      <c r="F369" s="174"/>
-      <c r="G369" s="174"/>
-      <c r="H369" s="174"/>
-      <c r="I369" s="174"/>
-      <c r="J369" s="174"/>
-      <c r="K369" s="174"/>
+      <c r="C369" s="206"/>
+      <c r="D369" s="206"/>
+      <c r="E369" s="206"/>
+      <c r="F369" s="206"/>
+      <c r="G369" s="206"/>
+      <c r="H369" s="206"/>
+      <c r="I369" s="206"/>
+      <c r="J369" s="206"/>
+      <c r="K369" s="206"/>
       <c r="L369" s="12"/>
       <c r="M369" s="2"/>
     </row>
@@ -8110,20 +8109,20 @@
       <c r="B375" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C375" s="218" t="s">
+      <c r="C375" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="D375" s="218"/>
-      <c r="E375" s="219" t="s">
+      <c r="D375" s="188"/>
+      <c r="E375" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="F375" s="219"/>
-      <c r="G375" s="219"/>
-      <c r="H375" s="219" t="s">
+      <c r="F375" s="187"/>
+      <c r="G375" s="187"/>
+      <c r="H375" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="I375" s="219"/>
-      <c r="J375" s="219"/>
+      <c r="I375" s="187"/>
+      <c r="J375" s="187"/>
       <c r="K375" s="21"/>
       <c r="L375" s="17"/>
     </row>
@@ -8132,14 +8131,14 @@
       <c r="B376" s="74">
         <v>1</v>
       </c>
-      <c r="C376" s="218"/>
-      <c r="D376" s="218"/>
-      <c r="E376" s="219"/>
-      <c r="F376" s="219"/>
-      <c r="G376" s="219"/>
-      <c r="H376" s="219"/>
-      <c r="I376" s="219"/>
-      <c r="J376" s="219"/>
+      <c r="C376" s="188"/>
+      <c r="D376" s="188"/>
+      <c r="E376" s="187"/>
+      <c r="F376" s="187"/>
+      <c r="G376" s="187"/>
+      <c r="H376" s="187"/>
+      <c r="I376" s="187"/>
+      <c r="J376" s="187"/>
       <c r="K376" s="33"/>
       <c r="L376" s="75"/>
     </row>
@@ -8148,14 +8147,14 @@
       <c r="B377" s="74">
         <v>2</v>
       </c>
-      <c r="C377" s="218"/>
-      <c r="D377" s="218"/>
-      <c r="E377" s="219"/>
-      <c r="F377" s="219"/>
-      <c r="G377" s="219"/>
-      <c r="H377" s="219"/>
-      <c r="I377" s="219"/>
-      <c r="J377" s="219"/>
+      <c r="C377" s="188"/>
+      <c r="D377" s="188"/>
+      <c r="E377" s="187"/>
+      <c r="F377" s="187"/>
+      <c r="G377" s="187"/>
+      <c r="H377" s="187"/>
+      <c r="I377" s="187"/>
+      <c r="J377" s="187"/>
       <c r="K377" s="33"/>
       <c r="L377" s="33"/>
     </row>
@@ -8164,14 +8163,14 @@
       <c r="B378" s="74">
         <v>3</v>
       </c>
-      <c r="C378" s="218"/>
-      <c r="D378" s="218"/>
-      <c r="E378" s="219"/>
-      <c r="F378" s="219"/>
-      <c r="G378" s="219"/>
-      <c r="H378" s="219"/>
-      <c r="I378" s="219"/>
-      <c r="J378" s="219"/>
+      <c r="C378" s="188"/>
+      <c r="D378" s="188"/>
+      <c r="E378" s="187"/>
+      <c r="F378" s="187"/>
+      <c r="G378" s="187"/>
+      <c r="H378" s="187"/>
+      <c r="I378" s="187"/>
+      <c r="J378" s="187"/>
       <c r="K378" s="33"/>
       <c r="L378" s="33"/>
     </row>
@@ -8180,14 +8179,14 @@
       <c r="B379" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C379" s="218"/>
-      <c r="D379" s="218"/>
-      <c r="E379" s="219"/>
-      <c r="F379" s="219"/>
-      <c r="G379" s="219"/>
-      <c r="H379" s="219"/>
-      <c r="I379" s="219"/>
-      <c r="J379" s="219"/>
+      <c r="C379" s="188"/>
+      <c r="D379" s="188"/>
+      <c r="E379" s="187"/>
+      <c r="F379" s="187"/>
+      <c r="G379" s="187"/>
+      <c r="H379" s="187"/>
+      <c r="I379" s="187"/>
+      <c r="J379" s="187"/>
       <c r="K379" s="33"/>
       <c r="L379" s="33"/>
     </row>
@@ -8196,14 +8195,14 @@
       <c r="B380" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="218"/>
-      <c r="D380" s="218"/>
-      <c r="E380" s="219"/>
-      <c r="F380" s="219"/>
-      <c r="G380" s="219"/>
-      <c r="H380" s="219"/>
-      <c r="I380" s="219"/>
-      <c r="J380" s="219"/>
+      <c r="C380" s="188"/>
+      <c r="D380" s="188"/>
+      <c r="E380" s="187"/>
+      <c r="F380" s="187"/>
+      <c r="G380" s="187"/>
+      <c r="H380" s="187"/>
+      <c r="I380" s="187"/>
+      <c r="J380" s="187"/>
       <c r="K380" s="33"/>
       <c r="L380" s="33"/>
     </row>
@@ -8212,14 +8211,14 @@
       <c r="B381" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="C381" s="218"/>
-      <c r="D381" s="218"/>
-      <c r="E381" s="219"/>
-      <c r="F381" s="219"/>
-      <c r="G381" s="219"/>
-      <c r="H381" s="219"/>
-      <c r="I381" s="219"/>
-      <c r="J381" s="219"/>
+      <c r="C381" s="188"/>
+      <c r="D381" s="188"/>
+      <c r="E381" s="187"/>
+      <c r="F381" s="187"/>
+      <c r="G381" s="187"/>
+      <c r="H381" s="187"/>
+      <c r="I381" s="187"/>
+      <c r="J381" s="187"/>
       <c r="K381" s="33"/>
       <c r="L381" s="33"/>
     </row>
@@ -8228,14 +8227,14 @@
       <c r="B382" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C382" s="218"/>
-      <c r="D382" s="218"/>
-      <c r="E382" s="219"/>
-      <c r="F382" s="219"/>
-      <c r="G382" s="219"/>
-      <c r="H382" s="219"/>
-      <c r="I382" s="219"/>
-      <c r="J382" s="219"/>
+      <c r="C382" s="188"/>
+      <c r="D382" s="188"/>
+      <c r="E382" s="187"/>
+      <c r="F382" s="187"/>
+      <c r="G382" s="187"/>
+      <c r="H382" s="187"/>
+      <c r="I382" s="187"/>
+      <c r="J382" s="187"/>
       <c r="K382" s="33"/>
       <c r="L382" s="33"/>
     </row>
@@ -8350,52 +8349,52 @@
     </row>
     <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
-      <c r="C392" s="218" t="s">
+      <c r="C392" s="188" t="s">
         <v>265</v>
       </c>
-      <c r="D392" s="218"/>
+      <c r="D392" s="188"/>
       <c r="I392" s="24"/>
       <c r="J392" s="24"/>
       <c r="K392" s="24"/>
     </row>
     <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
-      <c r="B393" s="147" t="s">
+      <c r="B393" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="C393" s="147" t="s">
+      <c r="C393" s="199" t="s">
         <v>264</v>
       </c>
-      <c r="D393" s="147" t="s">
+      <c r="D393" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="E393" s="147" t="s">
+      <c r="E393" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="F393" s="220" t="s">
+      <c r="F393" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="G393" s="220" t="s">
+      <c r="G393" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H393" s="220" t="s">
+      <c r="H393" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="I393" s="219" t="s">
+      <c r="I393" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="J393" s="219"/>
+      <c r="J393" s="187"/>
       <c r="K393" s="24"/>
     </row>
     <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
-      <c r="B394" s="147"/>
-      <c r="C394" s="147"/>
-      <c r="D394" s="147"/>
-      <c r="E394" s="147"/>
-      <c r="F394" s="221"/>
-      <c r="G394" s="221"/>
-      <c r="H394" s="221"/>
+      <c r="B394" s="199"/>
+      <c r="C394" s="199"/>
+      <c r="D394" s="199"/>
+      <c r="E394" s="199"/>
+      <c r="F394" s="201"/>
+      <c r="G394" s="201"/>
+      <c r="H394" s="201"/>
       <c r="I394" s="74" t="s">
         <v>186</v>
       </c>
@@ -8680,20 +8679,20 @@
     </row>
     <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
-      <c r="B414" s="154" t="s">
+      <c r="B414" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="C414" s="156"/>
-      <c r="D414" s="154" t="s">
+      <c r="C414" s="192"/>
+      <c r="D414" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="E414" s="155"/>
-      <c r="F414" s="155"/>
-      <c r="G414" s="155"/>
-      <c r="H414" s="155"/>
-      <c r="I414" s="155"/>
-      <c r="J414" s="156"/>
-      <c r="K414" s="220" t="s">
+      <c r="E414" s="197"/>
+      <c r="F414" s="197"/>
+      <c r="G414" s="197"/>
+      <c r="H414" s="197"/>
+      <c r="I414" s="197"/>
+      <c r="J414" s="192"/>
+      <c r="K414" s="200" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8726,7 +8725,7 @@
       <c r="J415" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K415" s="221"/>
+      <c r="K415" s="201"/>
     </row>
     <row r="416" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="19"/>
@@ -8957,22 +8956,22 @@
     </row>
     <row r="431" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="19"/>
-      <c r="B431" s="154" t="s">
+      <c r="B431" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="C431" s="156"/>
-      <c r="D431" s="228" t="s">
+      <c r="C431" s="192"/>
+      <c r="D431" s="205" t="s">
         <v>214</v>
       </c>
-      <c r="E431" s="154" t="s">
+      <c r="E431" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="F431" s="155"/>
-      <c r="G431" s="155"/>
-      <c r="H431" s="155"/>
-      <c r="I431" s="155"/>
-      <c r="J431" s="156"/>
-      <c r="K431" s="220" t="s">
+      <c r="F431" s="197"/>
+      <c r="G431" s="197"/>
+      <c r="H431" s="197"/>
+      <c r="I431" s="197"/>
+      <c r="J431" s="192"/>
+      <c r="K431" s="200" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8984,7 +8983,7 @@
       <c r="C432" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D432" s="218"/>
+      <c r="D432" s="188"/>
       <c r="E432" s="74">
         <v>1</v>
       </c>
@@ -9003,7 +9002,7 @@
       <c r="J432" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K432" s="221"/>
+      <c r="K432" s="201"/>
     </row>
     <row r="433" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="19"/>
@@ -9179,25 +9178,25 @@
     </row>
     <row r="445" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="19"/>
-      <c r="B445" s="233" t="s">
+      <c r="B445" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="C445" s="234"/>
-      <c r="D445" s="154" t="s">
+      <c r="C445" s="194"/>
+      <c r="D445" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="E445" s="155"/>
-      <c r="F445" s="155"/>
-      <c r="G445" s="155"/>
-      <c r="H445" s="155"/>
-      <c r="I445" s="155"/>
-      <c r="J445" s="156"/>
-      <c r="K445" s="237"/>
+      <c r="E445" s="197"/>
+      <c r="F445" s="197"/>
+      <c r="G445" s="197"/>
+      <c r="H445" s="197"/>
+      <c r="I445" s="197"/>
+      <c r="J445" s="192"/>
+      <c r="K445" s="198"/>
     </row>
     <row r="446" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="19"/>
-      <c r="B446" s="235"/>
-      <c r="C446" s="236"/>
+      <c r="B446" s="195"/>
+      <c r="C446" s="196"/>
       <c r="D446" s="74">
         <v>1</v>
       </c>
@@ -9219,14 +9218,14 @@
       <c r="J446" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="K446" s="237"/>
+      <c r="K446" s="198"/>
     </row>
     <row r="447" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="19"/>
-      <c r="B447" s="229" t="s">
+      <c r="B447" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="C447" s="231"/>
+      <c r="C447" s="148"/>
       <c r="D447" s="81"/>
       <c r="E447" s="81"/>
       <c r="F447" s="81"/>
@@ -9238,10 +9237,10 @@
     </row>
     <row r="448" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="19"/>
-      <c r="B448" s="229" t="s">
+      <c r="B448" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="C448" s="231"/>
+      <c r="C448" s="148"/>
       <c r="D448" s="81"/>
       <c r="E448" s="81"/>
       <c r="F448" s="81"/>
@@ -9253,10 +9252,10 @@
     </row>
     <row r="449" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="19"/>
-      <c r="B449" s="229" t="s">
+      <c r="B449" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="C449" s="231"/>
+      <c r="C449" s="148"/>
       <c r="D449" s="81"/>
       <c r="E449" s="81"/>
       <c r="F449" s="81"/>
@@ -9268,10 +9267,10 @@
     </row>
     <row r="450" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="19"/>
-      <c r="B450" s="154" t="s">
+      <c r="B450" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="C450" s="156"/>
+      <c r="C450" s="192"/>
       <c r="D450" s="45"/>
       <c r="E450" s="45"/>
       <c r="F450" s="45"/>
@@ -9585,17 +9584,17 @@
         <v>238</v>
       </c>
       <c r="B472" s="79"/>
-      <c r="C472" s="225" t="s">
+      <c r="C472" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="D472" s="226"/>
-      <c r="E472" s="226"/>
-      <c r="F472" s="226"/>
-      <c r="G472" s="226"/>
-      <c r="H472" s="226"/>
-      <c r="I472" s="226"/>
-      <c r="J472" s="226"/>
-      <c r="K472" s="227"/>
+      <c r="D472" s="151"/>
+      <c r="E472" s="151"/>
+      <c r="F472" s="151"/>
+      <c r="G472" s="151"/>
+      <c r="H472" s="151"/>
+      <c r="I472" s="151"/>
+      <c r="J472" s="151"/>
+      <c r="K472" s="152"/>
       <c r="L472" s="135"/>
     </row>
     <row r="473" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9629,10 +9628,10 @@
     <row r="475" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
-      <c r="C475" s="218" t="s">
+      <c r="C475" s="188" t="s">
         <v>265</v>
       </c>
-      <c r="D475" s="218"/>
+      <c r="D475" s="188"/>
       <c r="E475" s="18"/>
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
@@ -9643,42 +9642,42 @@
     </row>
     <row r="476" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="78"/>
-      <c r="B476" s="147" t="s">
+      <c r="B476" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="C476" s="147" t="s">
+      <c r="C476" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="D476" s="147" t="s">
+      <c r="D476" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="E476" s="147" t="s">
+      <c r="E476" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="F476" s="220" t="s">
+      <c r="F476" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="G476" s="220" t="s">
+      <c r="G476" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="H476" s="220" t="s">
+      <c r="H476" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="I476" s="222" t="s">
+      <c r="I476" s="202" t="s">
         <v>240</v>
       </c>
-      <c r="J476" s="223"/>
-      <c r="K476" s="224"/>
+      <c r="J476" s="203"/>
+      <c r="K476" s="204"/>
     </row>
     <row r="477" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="78"/>
-      <c r="B477" s="147"/>
-      <c r="C477" s="147"/>
-      <c r="D477" s="147"/>
-      <c r="E477" s="147"/>
-      <c r="F477" s="221"/>
-      <c r="G477" s="221"/>
-      <c r="H477" s="221"/>
+      <c r="B477" s="199"/>
+      <c r="C477" s="199"/>
+      <c r="D477" s="199"/>
+      <c r="E477" s="199"/>
+      <c r="F477" s="201"/>
+      <c r="G477" s="201"/>
+      <c r="H477" s="201"/>
       <c r="I477" s="76" t="s">
         <v>241</v>
       </c>
@@ -9711,21 +9710,21 @@
         <v>491.79</v>
       </c>
       <c r="H478" s="127">
-        <v>268899.73</v>
+        <v>388994.16</v>
       </c>
       <c r="I478" s="145">
         <f>M478/2</f>
-        <v>134449.86499999999</v>
+        <v>194497.08</v>
       </c>
       <c r="J478" s="145">
         <f>M478/2</f>
-        <v>134449.86499999999</v>
+        <v>194497.08</v>
       </c>
       <c r="K478" s="141"/>
       <c r="L478" s="79"/>
       <c r="M478" s="144">
         <f>H478</f>
-        <v>268899.73</v>
+        <v>388994.16</v>
       </c>
     </row>
     <row r="479" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9814,10 +9813,10 @@
       <c r="C484" s="79"/>
       <c r="D484" s="79"/>
       <c r="E484" s="39"/>
-      <c r="F484" s="238" t="s">
+      <c r="F484" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="G484" s="239"/>
+      <c r="G484" s="184"/>
       <c r="H484" s="127">
         <v>10000</v>
       </c>
@@ -9832,10 +9831,10 @@
       <c r="C485" s="79"/>
       <c r="D485" s="79"/>
       <c r="E485" s="39"/>
-      <c r="F485" s="229" t="s">
+      <c r="F485" s="147" t="s">
         <v>278</v>
       </c>
-      <c r="G485" s="231"/>
+      <c r="G485" s="148"/>
       <c r="H485" s="127">
         <v>24961.5</v>
       </c>
@@ -9850,10 +9849,10 @@
       <c r="C486" s="140"/>
       <c r="D486" s="140"/>
       <c r="E486" s="39"/>
-      <c r="F486" s="229" t="s">
+      <c r="F486" s="147" t="s">
         <v>328</v>
       </c>
-      <c r="G486" s="231"/>
+      <c r="G486" s="148"/>
       <c r="H486" s="127">
         <v>15464.06</v>
       </c>
@@ -9868,10 +9867,10 @@
       <c r="C487" s="79"/>
       <c r="D487" s="79"/>
       <c r="E487" s="39"/>
-      <c r="F487" s="229" t="s">
+      <c r="F487" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="G487" s="231"/>
+      <c r="G487" s="148"/>
       <c r="H487" s="127">
         <v>17290.75</v>
       </c>
@@ -9886,13 +9885,13 @@
       <c r="C488" s="79"/>
       <c r="D488" s="79"/>
       <c r="E488" s="39"/>
-      <c r="F488" s="154" t="s">
+      <c r="F488" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="G488" s="156"/>
+      <c r="G488" s="192"/>
       <c r="H488" s="143">
         <f>SUM(H478:H487)+0.01</f>
-        <v>336616.05</v>
+        <v>456710.48</v>
       </c>
       <c r="I488" s="79"/>
       <c r="J488" s="79"/>
@@ -10025,26 +10024,26 @@
     </row>
     <row r="497" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="19"/>
-      <c r="B497" s="233" t="s">
+      <c r="B497" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="C497" s="234"/>
-      <c r="D497" s="154" t="s">
+      <c r="C497" s="194"/>
+      <c r="D497" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="E497" s="155"/>
-      <c r="F497" s="155"/>
-      <c r="G497" s="155"/>
-      <c r="H497" s="155"/>
-      <c r="I497" s="155"/>
-      <c r="J497" s="156"/>
-      <c r="K497" s="237"/>
+      <c r="E497" s="197"/>
+      <c r="F497" s="197"/>
+      <c r="G497" s="197"/>
+      <c r="H497" s="197"/>
+      <c r="I497" s="197"/>
+      <c r="J497" s="192"/>
+      <c r="K497" s="198"/>
       <c r="L497" s="79"/>
     </row>
     <row r="498" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="19"/>
-      <c r="B498" s="235"/>
-      <c r="C498" s="236"/>
+      <c r="B498" s="195"/>
+      <c r="C498" s="196"/>
       <c r="D498" s="74">
         <v>1</v>
       </c>
@@ -10066,15 +10065,15 @@
       <c r="J498" s="74">
         <v>10</v>
       </c>
-      <c r="K498" s="237"/>
+      <c r="K498" s="198"/>
       <c r="L498" s="79"/>
     </row>
     <row r="499" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="19"/>
-      <c r="B499" s="229" t="s">
+      <c r="B499" s="147" t="s">
         <v>320</v>
       </c>
-      <c r="C499" s="231"/>
+      <c r="C499" s="148"/>
       <c r="D499" s="102"/>
       <c r="E499" s="142">
         <v>3500</v>
@@ -10095,10 +10094,10 @@
     </row>
     <row r="500" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="19"/>
-      <c r="B500" s="229" t="s">
+      <c r="B500" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="C500" s="231"/>
+      <c r="C500" s="148"/>
       <c r="D500" s="81"/>
       <c r="E500" s="81"/>
       <c r="F500" s="81"/>
@@ -10111,10 +10110,10 @@
     </row>
     <row r="501" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="19"/>
-      <c r="B501" s="229" t="s">
+      <c r="B501" s="147" t="s">
         <v>220</v>
       </c>
-      <c r="C501" s="231"/>
+      <c r="C501" s="148"/>
       <c r="D501" s="81"/>
       <c r="E501" s="81"/>
       <c r="F501" s="81"/>
@@ -10526,12 +10525,12 @@
       <c r="K529" s="79"/>
     </row>
     <row r="530" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="184" t="s">
+      <c r="A530" s="189" t="s">
         <v>246</v>
       </c>
-      <c r="B530" s="184"/>
-      <c r="C530" s="184"/>
-      <c r="D530" s="184"/>
+      <c r="B530" s="189"/>
+      <c r="C530" s="189"/>
+      <c r="D530" s="189"/>
       <c r="I530" s="79"/>
       <c r="J530" s="79"/>
       <c r="K530" s="79"/>
@@ -10603,34 +10602,34 @@
       <c r="J535" s="78"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A536" s="232" t="s">
+      <c r="A536" s="190" t="s">
         <v>248</v>
       </c>
-      <c r="B536" s="232"/>
-      <c r="C536" s="232"/>
-      <c r="D536" s="232"/>
-      <c r="E536" s="232"/>
-      <c r="F536" s="232"/>
-      <c r="G536" s="232"/>
-      <c r="H536" s="232"/>
-      <c r="I536" s="232"/>
-      <c r="J536" s="232"/>
-      <c r="K536" s="232"/>
+      <c r="B536" s="190"/>
+      <c r="C536" s="190"/>
+      <c r="D536" s="190"/>
+      <c r="E536" s="190"/>
+      <c r="F536" s="190"/>
+      <c r="G536" s="190"/>
+      <c r="H536" s="190"/>
+      <c r="I536" s="190"/>
+      <c r="J536" s="190"/>
+      <c r="K536" s="190"/>
     </row>
     <row r="537" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="232" t="s">
+      <c r="A537" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="B537" s="232"/>
-      <c r="C537" s="232"/>
-      <c r="D537" s="232"/>
-      <c r="E537" s="232"/>
-      <c r="F537" s="232"/>
-      <c r="G537" s="232"/>
-      <c r="H537" s="232"/>
-      <c r="I537" s="232"/>
-      <c r="J537" s="232"/>
-      <c r="K537" s="232"/>
+      <c r="B537" s="190"/>
+      <c r="C537" s="190"/>
+      <c r="D537" s="190"/>
+      <c r="E537" s="190"/>
+      <c r="F537" s="190"/>
+      <c r="G537" s="190"/>
+      <c r="H537" s="190"/>
+      <c r="I537" s="190"/>
+      <c r="J537" s="190"/>
+      <c r="K537" s="190"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="79"/>
@@ -10659,19 +10658,19 @@
       <c r="J539" s="78"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540" s="232" t="s">
+      <c r="A540" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="B540" s="232"/>
-      <c r="C540" s="232"/>
-      <c r="D540" s="232"/>
-      <c r="E540" s="232"/>
-      <c r="F540" s="232"/>
-      <c r="G540" s="232"/>
-      <c r="H540" s="232"/>
-      <c r="I540" s="232"/>
-      <c r="J540" s="232"/>
-      <c r="K540" s="232"/>
+      <c r="B540" s="190"/>
+      <c r="C540" s="190"/>
+      <c r="D540" s="190"/>
+      <c r="E540" s="190"/>
+      <c r="F540" s="190"/>
+      <c r="G540" s="190"/>
+      <c r="H540" s="190"/>
+      <c r="I540" s="190"/>
+      <c r="J540" s="190"/>
+      <c r="K540" s="190"/>
     </row>
     <row r="541" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="78"/>
@@ -10687,6 +10686,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B245:K245"/>
+    <mergeCell ref="B246:K246"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B276:K280"/>
+    <mergeCell ref="D268:K268"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B227:K227"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B162:K162"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B260:K264"/>
+    <mergeCell ref="B369:K369"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B214:K216"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B129:K129"/>
+    <mergeCell ref="B143:K143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B121:K123"/>
+    <mergeCell ref="B193:K197"/>
+    <mergeCell ref="B200:K204"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="H378:J378"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="H375:J375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="H376:J376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="E377:G377"/>
+    <mergeCell ref="H377:J377"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="G476:G477"/>
+    <mergeCell ref="H476:H477"/>
+    <mergeCell ref="I476:K476"/>
+    <mergeCell ref="C472:K472"/>
+    <mergeCell ref="B450:C450"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="D414:J414"/>
+    <mergeCell ref="K414:K415"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="E431:J431"/>
+    <mergeCell ref="K431:K432"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="E393:E394"/>
+    <mergeCell ref="F393:F394"/>
+    <mergeCell ref="G393:G394"/>
+    <mergeCell ref="H393:H394"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A536:K536"/>
+    <mergeCell ref="A537:K537"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B497:C498"/>
+    <mergeCell ref="D497:J497"/>
+    <mergeCell ref="K497:K498"/>
+    <mergeCell ref="B499:C499"/>
+    <mergeCell ref="B500:C500"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="F476:F477"/>
+    <mergeCell ref="B445:C446"/>
+    <mergeCell ref="D445:J445"/>
+    <mergeCell ref="K445:K446"/>
+    <mergeCell ref="B447:C447"/>
+    <mergeCell ref="B448:C448"/>
+    <mergeCell ref="B449:C449"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="H381:J381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="H382:J382"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="H379:J379"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E380:G380"/>
     <mergeCell ref="F486:G486"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
@@ -10711,134 +10838,6 @@
     <mergeCell ref="D367:K367"/>
     <mergeCell ref="G53:J53"/>
     <mergeCell ref="B235:K237"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="H382:J382"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="H379:J379"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="H380:J380"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A536:K536"/>
-    <mergeCell ref="A537:K537"/>
-    <mergeCell ref="A540:K540"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B497:C498"/>
-    <mergeCell ref="D497:J497"/>
-    <mergeCell ref="K497:K498"/>
-    <mergeCell ref="B499:C499"/>
-    <mergeCell ref="B500:C500"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="C476:C477"/>
-    <mergeCell ref="D476:D477"/>
-    <mergeCell ref="E476:E477"/>
-    <mergeCell ref="F476:F477"/>
-    <mergeCell ref="B445:C446"/>
-    <mergeCell ref="D445:J445"/>
-    <mergeCell ref="K445:K446"/>
-    <mergeCell ref="B447:C447"/>
-    <mergeCell ref="B448:C448"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="G476:G477"/>
-    <mergeCell ref="H476:H477"/>
-    <mergeCell ref="I476:K476"/>
-    <mergeCell ref="C472:K472"/>
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="I393:J393"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="D414:J414"/>
-    <mergeCell ref="K414:K415"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="E431:J431"/>
-    <mergeCell ref="K431:K432"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="D393:D394"/>
-    <mergeCell ref="E393:E394"/>
-    <mergeCell ref="F393:F394"/>
-    <mergeCell ref="G393:G394"/>
-    <mergeCell ref="H393:H394"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="H378:J378"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="H375:J375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="H376:J376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="E377:G377"/>
-    <mergeCell ref="H377:J377"/>
-    <mergeCell ref="B369:K369"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B214:K216"/>
-    <mergeCell ref="B126:K126"/>
-    <mergeCell ref="B129:K129"/>
-    <mergeCell ref="B143:K143"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B121:K123"/>
-    <mergeCell ref="B193:K197"/>
-    <mergeCell ref="B200:K204"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B245:K245"/>
-    <mergeCell ref="B246:K246"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B276:K280"/>
-    <mergeCell ref="D268:K268"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B227:K227"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B162:K162"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B260:K264"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
